--- a/wz/12.xlsx
+++ b/wz/12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="163">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -307,91 +307,133 @@
     <t>016</t>
   </si>
   <si>
+    <t>http://www.bigpixel.cn/</t>
+  </si>
+  <si>
+    <t>千亿像素看中国</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>https://gfsoso.99lb.net</t>
+  </si>
+  <si>
+    <t>谷粉学术</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>https://lab.magiconch.com/nbnhhsh/</t>
+  </si>
+  <si>
+    <t>能不能好好说话？</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/191065264</t>
+  </si>
+  <si>
+    <t>各类镜像网站</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>https://www.mywifisign.com/zh-hans</t>
+  </si>
+  <si>
+    <t>我的WiFi卡片</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>https://g.dgclouds.net</t>
+  </si>
+  <si>
+    <t>谷歌镜像1</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>https://mygraphpaper.com/</t>
+  </si>
+  <si>
+    <t>方格纸</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>https://g.caduo.ml</t>
+  </si>
+  <si>
+    <t>谷歌镜像2</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>https://maiba.fun/</t>
+  </si>
+  <si>
+    <t>首富模拟器 - 买吧</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>https://www.google-fix.com</t>
+  </si>
+  <si>
+    <t>谷歌镜像3</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>http://qingwendang.com/</t>
+  </si>
+  <si>
+    <t>随时云U盘</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>https://www.sanzhima.com</t>
+  </si>
+  <si>
+    <t>谷歌镜像4</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>http://illusionoftheyear.com/</t>
+  </si>
+  <si>
+    <t>全球视错觉权威官网</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>https://www.wanweibaike.com</t>
+  </si>
+  <si>
+    <t>万维百科</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>046</t>
-  </si>
-  <si>
-    <t>https://gfsoso.99lb.net</t>
-  </si>
-  <si>
-    <t>谷粉学术</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/191065264</t>
-  </si>
-  <si>
-    <t>各类镜像网站</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>048</t>
-  </si>
-  <si>
-    <t>https://g.dgclouds.net</t>
-  </si>
-  <si>
-    <t>谷歌镜像1</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>049</t>
-  </si>
-  <si>
-    <t>https://g.caduo.ml</t>
-  </si>
-  <si>
-    <t>谷歌镜像2</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>https://www.google-fix.com</t>
-  </si>
-  <si>
-    <t>谷歌镜像3</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
-    <t>https://www.sanzhima.com</t>
-  </si>
-  <si>
-    <t>谷歌镜像4</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>https://www.wanweibaike.com</t>
-  </si>
-  <si>
-    <t>万维百科</t>
-  </si>
-  <si>
-    <t>023</t>
   </si>
   <si>
     <t>053</t>
@@ -468,10 +510,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -479,14 +521,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,96 +532,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -604,9 +554,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -618,11 +592,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -647,7 +689,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,19 +785,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,43 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,13 +827,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,73 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,39 +893,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -901,8 +910,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,6 +942,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -947,6 +980,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -955,10 +997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,133 +1009,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="B4:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2185,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -2194,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O20" t="s">
         <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q20" t="s">
         <v>7</v>
@@ -2217,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -2226,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
@@ -2241,19 +2283,19 @@
         <v>8</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O21" t="s">
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q21" t="s">
         <v>7</v>
@@ -2264,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -2273,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="I22" t="s">
         <v>7</v>
@@ -2288,19 +2330,19 @@
         <v>8</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M22" t="s">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O22" t="s">
         <v>5</v>
       </c>
       <c r="P22" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q22" t="s">
         <v>7</v>
@@ -2311,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -2320,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -2335,19 +2377,19 @@
         <v>8</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M23" t="s">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O23" t="s">
         <v>5</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q23" t="s">
         <v>7</v>
@@ -2358,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -2367,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -2382,19 +2424,19 @@
         <v>8</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O24" t="s">
         <v>5</v>
       </c>
       <c r="P24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q24" t="s">
         <v>7</v>
@@ -2405,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -2414,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>7</v>
@@ -2429,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
         <v>5</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q25" t="s">
         <v>7</v>
@@ -2452,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -2461,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="I26" t="s">
         <v>7</v>
@@ -2476,19 +2518,19 @@
         <v>8</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O26" t="s">
         <v>5</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q26" t="s">
         <v>7</v>
@@ -2499,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
@@ -2508,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -2523,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M27" t="s">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O27" t="s">
         <v>5</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Q27" t="s">
         <v>7</v>
@@ -2546,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -2555,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
@@ -2570,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M28" t="s">
         <v>3</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="O28" t="s">
         <v>5</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Q28" t="s">
         <v>7</v>
@@ -2593,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -2602,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
@@ -2617,19 +2659,19 @@
         <v>8</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O29" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q29" t="s">
         <v>7</v>
@@ -2640,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -2649,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -2664,19 +2706,19 @@
         <v>8</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M30" t="s">
         <v>3</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O30" t="s">
         <v>5</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q30" t="s">
         <v>7</v>
@@ -2687,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -2696,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
@@ -2711,19 +2753,19 @@
         <v>8</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M31" t="s">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="O31" t="s">
         <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q31" t="s">
         <v>7</v>
@@ -2734,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -2743,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -2758,19 +2800,19 @@
         <v>8</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="O32" t="s">
         <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q32" t="s">
         <v>7</v>
@@ -2781,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -2790,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -2805,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M33" t="s">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="O33" t="s">
         <v>5</v>
       </c>
       <c r="P33" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q33" t="s">
         <v>7</v>
@@ -2828,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -2837,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
@@ -2852,19 +2894,19 @@
         <v>8</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M34" t="s">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="O34" t="s">
         <v>5</v>
       </c>
       <c r="P34" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="Q34" t="s">
         <v>7</v>
@@ -3286,7 +3328,7 @@
     <row r="74" spans="2:22">
       <c r="B74" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;016&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;046&lt;/td&gt;&lt;td&gt;&lt;a href="https://gfsoso.99lb.net/"&gt;谷粉学术&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;016&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.bigpixel.cn//"&gt;千亿像素看中国&lt;/a&gt;&lt;/td&gt;&lt;td&gt;046&lt;/td&gt;&lt;td&gt;&lt;a href="https://gfsoso.99lb.net/"&gt;谷粉学术&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3312,7 +3354,7 @@
     <row r="75" spans="2:22">
       <c r="B75" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;017&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;047&lt;/td&gt;&lt;td&gt;&lt;a href="https://zhuanlan.zhihu.com/p/191065264/"&gt;各类镜像网站&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;017&lt;/td&gt;&lt;td&gt;&lt;a href="https://lab.magiconch.com/nbnhhsh//"&gt;能不能好好说话？&lt;/a&gt;&lt;/td&gt;&lt;td&gt;047&lt;/td&gt;&lt;td&gt;&lt;a href="https://zhuanlan.zhihu.com/p/191065264/"&gt;各类镜像网站&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3338,7 +3380,7 @@
     <row r="76" spans="2:22">
       <c r="B76" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;018&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;048&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.dgclouds.net/"&gt;谷歌镜像1&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;018&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.mywifisign.com/zh-hans/"&gt;我的WiFi卡片&lt;/a&gt;&lt;/td&gt;&lt;td&gt;048&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.dgclouds.net/"&gt;谷歌镜像1&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3364,7 +3406,7 @@
     <row r="77" spans="2:22">
       <c r="B77" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;019&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;049&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.caduo.ml/"&gt;谷歌镜像2&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;019&lt;/td&gt;&lt;td&gt;&lt;a href="https://mygraphpaper.com//"&gt;方格纸&lt;/a&gt;&lt;/td&gt;&lt;td&gt;049&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.caduo.ml/"&gt;谷歌镜像2&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3390,7 +3432,7 @@
     <row r="78" spans="2:22">
       <c r="B78" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;020&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;050&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.google-fix.com/"&gt;谷歌镜像3&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;020&lt;/td&gt;&lt;td&gt;&lt;a href="https://maiba.fun//"&gt;首富模拟器 - 买吧&lt;/a&gt;&lt;/td&gt;&lt;td&gt;050&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.google-fix.com/"&gt;谷歌镜像3&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3416,7 +3458,7 @@
     <row r="79" spans="2:22">
       <c r="B79" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;021&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;051&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sanzhima.com/"&gt;谷歌镜像4&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;021&lt;/td&gt;&lt;td&gt;&lt;a href="http://qingwendang.com//"&gt;随时云U盘&lt;/a&gt;&lt;/td&gt;&lt;td&gt;051&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sanzhima.com/"&gt;谷歌镜像4&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3442,7 +3484,7 @@
     <row r="80" spans="2:22">
       <c r="B80" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;022&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;052&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wanweibaike.com/"&gt;万维百科&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;022&lt;/td&gt;&lt;td&gt;&lt;a href="http://illusionoftheyear.com//"&gt;全球视错觉权威官网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;052&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wanweibaike.com/"&gt;万维百科&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -4031,6 +4073,9 @@
     <mergeCell ref="B99:V99"/>
     <mergeCell ref="B100:V100"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H26" r:id="rId1" display="全球视错觉权威官网" tooltip="https://youquhome.com/8621/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/wz/12.xlsx
+++ b/wz/12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="312">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -43,466 +43,913 @@
     <t>&lt;td&gt;</t>
   </si>
   <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>https://www.zjlib.cn</t>
+  </si>
+  <si>
+    <t>浙江图书馆</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>http://1s1k.eduyun.cn</t>
+  </si>
+  <si>
+    <t>小初高丨国家教育资源公共服务平台</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>https://www.sxlib.com</t>
+  </si>
+  <si>
+    <t>绍兴图书馆</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>https://www.diyijc.com</t>
+  </si>
+  <si>
+    <t>小初高丨大学职场丨第一教程网</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>http://www.gxlib.org.cn</t>
+  </si>
+  <si>
+    <t>广西壮族自治区图书馆</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>https://www.autopiano.cn</t>
+  </si>
+  <si>
+    <t>自由钢琴</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>http://www.gzlib.org</t>
+  </si>
+  <si>
+    <t>贵州数字图书馆</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>http://www.qinzibuy.com</t>
+  </si>
+  <si>
+    <t>幼儿园学习网</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>http://www.ccelib.cn</t>
+  </si>
+  <si>
+    <t>长春市图书馆</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>http://www.sdchild.com/download</t>
+  </si>
+  <si>
+    <t>幼教资源共享</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>http://virtual.vizen.cn</t>
+  </si>
+  <si>
+    <t>博物馆网上展览</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>https://www.youjiao5.com</t>
+  </si>
+  <si>
+    <t>幼教资源站</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>http://www.worlduc.com</t>
+  </si>
+  <si>
+    <t>世界大学城</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>https://www.zj106.com</t>
+  </si>
+  <si>
+    <t>早教网</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>https://www.gujiguan.com</t>
+  </si>
+  <si>
+    <t>古籍館-中國最大的古籍圖書館</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>https://www.wujiwuxia.com</t>
+  </si>
+  <si>
+    <t>戊戟武侠小说全集</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>https://www.wdl.org/zh</t>
+  </si>
+  <si>
+    <t>世界数字图书馆主页</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>https://www.gulongwang.com</t>
+  </si>
+  <si>
+    <t>古龙小说全集</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>https://sobooks.cc</t>
+  </si>
+  <si>
+    <t>SoBooks - 一起分享阅读的乐趣</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>https://www.jinyongwang.com/book</t>
+  </si>
+  <si>
+    <t>金庸武侠小说全集</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>http://www.qishus.com</t>
+  </si>
+  <si>
+    <t>奇书网</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>http://www.wuxia.net.cn</t>
+  </si>
+  <si>
+    <t>武侠小说网</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>http://www.zxcs.me</t>
+  </si>
+  <si>
+    <t>知轩藏书</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>https://github.com</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>https://www.jiumodiary.com</t>
+  </si>
+  <si>
+    <t>鸠摩搜索</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>https://gitee.com</t>
+  </si>
+  <si>
+    <t>码云</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>http://cn.epubee.com/books</t>
+  </si>
+  <si>
+    <t>ePUBee电子书库</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>https://youquhome.com</t>
+  </si>
+  <si>
+    <t>有趣网</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>https://new.shuge.org</t>
+  </si>
+  <si>
+    <t>书格</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>https://lab.magiconch.com/nbnhhsh</t>
+  </si>
+  <si>
+    <t>能不能好好说话？</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>https://gfsoso.99lb.net</t>
+  </si>
+  <si>
+    <t>谷粉学术</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>https://www.mywifisign.com/zh-hans</t>
+  </si>
+  <si>
+    <t>我的WiFi卡片</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/191065264</t>
+  </si>
+  <si>
+    <t>各类镜像网站</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>https://mygraphpaper.com</t>
+  </si>
+  <si>
+    <t>方格纸</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>https://g.dgclouds.net</t>
+  </si>
+  <si>
+    <t>谷歌镜像1</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>https://maiba.fun</t>
+  </si>
+  <si>
+    <t>首富模拟器 - 买吧</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>https://g.caduo.ml</t>
+  </si>
+  <si>
+    <t>谷歌镜像2</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>http://qingwendang.com</t>
+  </si>
+  <si>
+    <t>随时云U盘</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>https://www.google-fix.com</t>
+  </si>
+  <si>
+    <t>谷歌镜像3</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>http://illusionoftheyear.com</t>
+  </si>
+  <si>
+    <t>全球视错觉权威官网</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>https://www.sanzhima.com</t>
+  </si>
+  <si>
+    <t>谷歌镜像4</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>https://www.qiushibaike.com</t>
+  </si>
+  <si>
+    <t>糗事百科</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>https://www.wanweibaike.com</t>
+  </si>
+  <si>
+    <t>万维百科</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>http://www.petercallesen.com/home</t>
+  </si>
+  <si>
+    <t>A4 创意</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>https://www.chromefor.com</t>
+  </si>
+  <si>
+    <t>Chrome插件</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>https://photoshop.adobe.com</t>
+  </si>
+  <si>
+    <t>在线PS</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>http://www.2qq.net/map</t>
+  </si>
+  <si>
+    <t>首夫托拉基斯基的卫星</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>http://www.earthcam.com</t>
+  </si>
+  <si>
+    <t>世界各地的实时摄像头监控</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>http://kyon945.ys168.com</t>
+  </si>
+  <si>
+    <t>阿虚同学的储物间</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>http://www.itmop.com/zhuanti/zz.html</t>
+  </si>
+  <si>
+    <t>软件资源集合</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>http://www.huanghunxiao.com</t>
+  </si>
+  <si>
+    <t>魔音MORIN</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>https://www.languageguide.org/cn/</t>
+  </si>
+  <si>
+    <t>学习一门语言</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>https://www.imooc.com</t>
+  </si>
+  <si>
+    <t>慕课网</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>https://www.getitfree.cn</t>
+  </si>
+  <si>
+    <t>正版中国 | 正版软件限时免费</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>https://www.sigoo.com</t>
+  </si>
+  <si>
+    <t>极像素-超高像素看世界</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>https://msdn.itellyou.cn</t>
+  </si>
+  <si>
+    <t>MSDN, 我告诉你</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>https://airpano.org.cn</t>
+  </si>
+  <si>
+    <t>全球360°虚拟游览</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>https://cn.office-converter.com/</t>
+  </si>
+  <si>
+    <t>在线转换器</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>https://www.airpano.com</t>
+  </si>
+  <si>
+    <t>AirPano—— 在家躺着也能环游世界</t>
+  </si>
+  <si>
     <t>031</t>
   </si>
   <si>
-    <t>https://www.zjlib.cn</t>
-  </si>
-  <si>
-    <t>浙江图书馆</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>http://1s1k.eduyun.cn</t>
-  </si>
-  <si>
-    <t>小初高丨国家教育资源公共服务平台</t>
+    <t>https://www.foldnfly.com/#/1-1-1-1-1-1-1-1-2</t>
+  </si>
+  <si>
+    <t>全网最全叠飞机</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>http://www.bigpixel.cn</t>
+  </si>
+  <si>
+    <t>千亿像素看中国</t>
   </si>
   <si>
     <t>032</t>
   </si>
   <si>
-    <t>https://www.sxlib.com</t>
-  </si>
-  <si>
-    <t>绍兴图书馆</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>https://www.diyijc.com</t>
-  </si>
-  <si>
-    <t>小初高丨大学职场丨第一教程网</t>
+    <t>https://www.5ce.com</t>
+  </si>
+  <si>
+    <t>内容神器</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>http://www.9866.cn</t>
+  </si>
+  <si>
+    <t>9866趣站</t>
   </si>
   <si>
     <t>033</t>
   </si>
   <si>
-    <t>http://www.gxlib.org.cn</t>
-  </si>
-  <si>
-    <t>广西壮族自治区图书馆</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>https://www.autopiano.cn</t>
-  </si>
-  <si>
-    <t>自由钢琴</t>
+    <t>http://tinypng.com</t>
+  </si>
+  <si>
+    <t>图片无损压缩</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>http://www.rdonly.com</t>
+  </si>
+  <si>
+    <t>只读</t>
   </si>
   <si>
     <t>034</t>
   </si>
   <si>
-    <t>http://www.gzlib.org</t>
-  </si>
-  <si>
-    <t>贵州数字图书馆</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>http://www.qinzibuy.com</t>
-  </si>
-  <si>
-    <t>幼儿园学习网</t>
+    <t>https://bigjpg.com/zh</t>
+  </si>
+  <si>
+    <t>图片无损放大</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>http://guozhivip.com/lab</t>
+  </si>
+  <si>
+    <t>果汁实验室 - 发现国内外优质网站</t>
   </si>
   <si>
     <t>035</t>
   </si>
   <si>
-    <t>http://www.ccelib.cn</t>
-  </si>
-  <si>
-    <t>长春市图书馆</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>http://www.sdchild.com/download</t>
-  </si>
-  <si>
-    <t>幼教资源共享</t>
+    <t>https://www.bittorrent.com</t>
+  </si>
+  <si>
+    <t>电影看个够</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>http://n.lackk.com</t>
+  </si>
+  <si>
+    <t>兰客书签</t>
   </si>
   <si>
     <t>036</t>
   </si>
   <si>
-    <t>http://virtual.vizen.cn</t>
-  </si>
-  <si>
-    <t>博物馆网上展览</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>https://www.youjiao5.com</t>
-  </si>
-  <si>
-    <t>幼教资源站</t>
+    <t>https://web.archive.org</t>
+  </si>
+  <si>
+    <t>互联网档案库</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/47334820/answer/720729006</t>
+  </si>
+  <si>
+    <t>冷门网站？</t>
   </si>
   <si>
     <t>037</t>
   </si>
   <si>
-    <t>http://www.worlduc.com</t>
-  </si>
-  <si>
-    <t>世界大学城</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>https://www.zj106.com</t>
-  </si>
-  <si>
-    <t>早教网</t>
+    <t>https://www.artic.edu/collection</t>
+  </si>
+  <si>
+    <t>芝加哥（艺术）博物馆</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>https://www.weiciyun.com</t>
+  </si>
+  <si>
+    <t>文字云艺术生成器</t>
   </si>
   <si>
     <t>038</t>
   </si>
   <si>
-    <t>https://www.gujiguan.com</t>
-  </si>
-  <si>
-    <t>古籍館-中國最大的古籍圖書館</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>https://www.wujiwuxia.com</t>
-  </si>
-  <si>
-    <t>戊戟武侠小说全集</t>
+    <t>https://www.fotor.com.cn</t>
+  </si>
+  <si>
+    <t>​Fotor懒设计</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>https://www.cbaigui.com</t>
+  </si>
+  <si>
+    <t>知妖（中国妖怪百集）</t>
   </si>
   <si>
     <t>039</t>
   </si>
   <si>
-    <t>https://www.wdl.org/zh</t>
-  </si>
-  <si>
-    <t>世界数字图书馆主页</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>https://www.gulongwang.com</t>
-  </si>
-  <si>
-    <t>古龙小说全集</t>
+    <t>https://www.allhistory.com</t>
+  </si>
+  <si>
+    <t>全历史</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>https://beecut.cn/online-video-editor</t>
+  </si>
+  <si>
+    <t>免费在线视频制作</t>
   </si>
   <si>
     <t>040</t>
   </si>
   <si>
-    <t>https://sobooks.cc</t>
-  </si>
-  <si>
-    <t>SoBooks - 一起分享阅读的乐趣</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>https://www.jinyongwang.com/book</t>
-  </si>
-  <si>
-    <t>金庸武侠小说全集</t>
+    <t>https://neal.fun/spend</t>
+  </si>
+  <si>
+    <t>体验一下富豪的生活</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>https://www.seeseed.com</t>
+  </si>
+  <si>
+    <t>Seeseed-无穷尽设计可能</t>
   </si>
   <si>
     <t>041</t>
   </si>
   <si>
-    <t>http://www.qishus.com</t>
-  </si>
-  <si>
-    <t>奇书网</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>http://www.wuxia.net.cn</t>
-  </si>
-  <si>
-    <t>武侠小说网</t>
+    <t>http://www.nows.fun</t>
+  </si>
+  <si>
+    <t>毒鸡汤</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>http://www.ku68.com</t>
+  </si>
+  <si>
+    <t>酷奇</t>
   </si>
   <si>
     <t>042</t>
   </si>
   <si>
-    <t>http://www.zxcs.me</t>
-  </si>
-  <si>
-    <t>知轩藏书</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>https://github.com/</t>
-  </si>
-  <si>
-    <t>github</t>
+    <t>https://chp.shadiao.app</t>
+  </si>
+  <si>
+    <t>彩虹屁生成器</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>https://creatorsdaily.com</t>
+  </si>
+  <si>
+    <t>创造者日报</t>
   </si>
   <si>
     <t>043</t>
   </si>
   <si>
-    <t>https://www.jiumodiary.com</t>
-  </si>
-  <si>
-    <t>鸠摩搜索</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>https://gitee.com/</t>
-  </si>
-  <si>
-    <t>码云</t>
+    <t>http://jetli.com.cn</t>
+  </si>
+  <si>
+    <t>国内外最好玩有趣的网站导航</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>https://10minutemail.net</t>
+  </si>
+  <si>
+    <t>10分钟邮箱</t>
   </si>
   <si>
     <t>044</t>
   </si>
   <si>
-    <t>http://cn.epubee.com/books</t>
-  </si>
-  <si>
-    <t>ePUBee电子书库</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>https://youquhome.com/</t>
-  </si>
-  <si>
-    <t>有趣网</t>
+    <t>https://daohang.youyisi8.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有意思导航 </t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>https://dazi.kukuw.com</t>
+  </si>
+  <si>
+    <t>在线打字测试</t>
   </si>
   <si>
     <t>045</t>
   </si>
   <si>
-    <t>https://new.shuge.org</t>
-  </si>
-  <si>
-    <t>书格</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>http://www.bigpixel.cn/</t>
-  </si>
-  <si>
-    <t>千亿像素看中国</t>
+    <t>https://touduyu.com/sites</t>
+  </si>
+  <si>
+    <t>趣站_偷渡鱼网址导航</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>https://papago.naver.com</t>
+  </si>
+  <si>
+    <t>Papago：中日韩 翻译</t>
   </si>
   <si>
     <t>046</t>
   </si>
   <si>
-    <t>https://gfsoso.99lb.net</t>
-  </si>
-  <si>
-    <t>谷粉学术</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>https://lab.magiconch.com/nbnhhsh/</t>
-  </si>
-  <si>
-    <t>能不能好好说话？</t>
+    <t>https://www.xiwnn.com/piano</t>
+  </si>
+  <si>
+    <t>在线钢琴模拟器</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>https://wordart.com</t>
+  </si>
+  <si>
+    <t>WordArt－文字/词云图片生成器</t>
   </si>
   <si>
     <t>047</t>
   </si>
   <si>
-    <t>https://zhuanlan.zhihu.com/p/191065264</t>
-  </si>
-  <si>
-    <t>各类镜像网站</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>https://www.mywifisign.com/zh-hans</t>
-  </si>
-  <si>
-    <t>我的WiFi卡片</t>
+    <t>https://aipix.net/?lang=zh</t>
+  </si>
+  <si>
+    <t>AI智能抠图_AIpix</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>https://sou-yun.cn</t>
+  </si>
+  <si>
+    <t>搜韵-诗词门户网站</t>
   </si>
   <si>
     <t>048</t>
   </si>
   <si>
-    <t>https://g.dgclouds.net</t>
-  </si>
-  <si>
-    <t>谷歌镜像1</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>https://mygraphpaper.com/</t>
-  </si>
-  <si>
-    <t>方格纸</t>
+    <t>https://www.tool22.com</t>
+  </si>
+  <si>
+    <t>兔二工具</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>http://huatu.xuanheng05.cn</t>
+  </si>
+  <si>
+    <t>在线思维导图、流程图</t>
   </si>
   <si>
     <t>049</t>
   </si>
   <si>
-    <t>https://g.caduo.ml</t>
-  </si>
-  <si>
-    <t>谷歌镜像2</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>https://maiba.fun/</t>
-  </si>
-  <si>
-    <t>首富模拟器 - 买吧</t>
+    <t>https://www.57994.com</t>
+  </si>
+  <si>
+    <t>微信公众平台导航</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>https://www.oalib.com</t>
+  </si>
+  <si>
+    <t>Open Access Library (OA图书馆)</t>
   </si>
   <si>
     <t>050</t>
   </si>
   <si>
-    <t>https://www.google-fix.com</t>
-  </si>
-  <si>
-    <t>谷歌镜像3</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>http://qingwendang.com/</t>
-  </si>
-  <si>
-    <t>随时云U盘</t>
+    <t>https://www.anyknew.com/#</t>
+  </si>
+  <si>
+    <t>全网热点</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>http://www.pptbz.com</t>
+  </si>
+  <si>
+    <t>PPT宝藏</t>
   </si>
   <si>
     <t>051</t>
   </si>
   <si>
-    <t>https://www.sanzhima.com</t>
-  </si>
-  <si>
-    <t>谷歌镜像4</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>http://illusionoftheyear.com/</t>
-  </si>
-  <si>
-    <t>全球视错觉权威官网</t>
-  </si>
-  <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>https://www.wanweibaike.com</t>
-  </si>
-  <si>
-    <t>万维百科</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>https://www.chromefor.com</t>
-  </si>
-  <si>
-    <t>Chrome插件</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>http://kyon945.ys168.com</t>
-  </si>
-  <si>
-    <t>阿虚同学的储物间</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
-    <t>http://www.huanghunxiao.com</t>
-  </si>
-  <si>
-    <t>魔音MORIN</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>https://www.imooc.com</t>
-  </si>
-  <si>
-    <t>慕课网</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>060</t>
+    <t>https://tophub.today</t>
+  </si>
+  <si>
+    <t>今日热榜官网</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>https://www.examcoo.com</t>
+  </si>
+  <si>
+    <t>电子作业与在线考试平台</t>
   </si>
 </sst>
 </file>
@@ -512,8 +959,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -525,21 +972,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,7 +987,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,9 +1030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,60 +1039,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,11 +1068,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -689,7 +1136,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +1208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,43 +1226,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,97 +1292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +1304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,6 +1339,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -907,11 +1363,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +1385,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,36 +1428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -997,10 +1444,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,133 +1456,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1474,10 +1921,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:V100"/>
+  <dimension ref="B4:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B119" sqref="B69:V119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2556,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -2565,19 +3012,19 @@
         <v>8</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M27" t="s">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O27" t="s">
         <v>5</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27" t="s">
         <v>7</v>
@@ -2588,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -2597,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
@@ -2612,19 +3059,19 @@
         <v>8</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M28" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>145</v>
+      <c r="N28" t="s">
+        <v>148</v>
       </c>
       <c r="O28" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>146</v>
+      <c r="P28" t="s">
+        <v>149</v>
       </c>
       <c r="Q28" t="s">
         <v>7</v>
@@ -2635,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -2644,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
@@ -2659,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="M29" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O29" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q29" t="s">
         <v>7</v>
@@ -2682,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
@@ -2691,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -2706,19 +3153,19 @@
         <v>8</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M30" t="s">
         <v>3</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s">
         <v>5</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q30" t="s">
         <v>7</v>
@@ -2729,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -2738,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
@@ -2753,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s">
         <v>3</v>
       </c>
-      <c r="N31" t="s">
-        <v>139</v>
+      <c r="N31" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="O31" t="s">
         <v>5</v>
       </c>
-      <c r="P31" t="s">
-        <v>139</v>
+      <c r="P31" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="Q31" t="s">
         <v>7</v>
@@ -2776,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -2785,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -2800,19 +3247,19 @@
         <v>8</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="O32" t="s">
         <v>5</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="Q32" t="s">
         <v>7</v>
@@ -2823,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -2832,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -2847,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="O33" t="s">
         <v>5</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="Q33" t="s">
         <v>7</v>
@@ -2870,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
@@ -2879,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="I34" t="s">
         <v>7</v>
@@ -2894,311 +3341,975 @@
         <v>8</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="O34" t="s">
         <v>5</v>
       </c>
       <c r="P34" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="Q34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:22">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-    </row>
-    <row r="59" spans="2:22">
-      <c r="B59" s="4" t="str">
-        <f>B5&amp;C5&amp;D5&amp;F5&amp;G5&amp;H5&amp;I5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5</f>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;001&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.leleketang.com/"&gt;乐乐课堂&lt;/a&gt;&lt;/td&gt;&lt;td&gt;031&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zjlib.cn/"&gt;浙江图书馆&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-    </row>
-    <row r="60" spans="2:22">
-      <c r="B60" s="4" t="str">
-        <f t="shared" ref="B60:B88" si="0">B6&amp;C6&amp;D6&amp;F6&amp;G6&amp;H6&amp;I6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6</f>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;002&lt;/td&gt;&lt;td&gt;&lt;a href="http://1s1k.eduyun.cn/"&gt;小初高丨国家教育资源公共服务平台&lt;/a&gt;&lt;/td&gt;&lt;td&gt;032&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sxlib.com/"&gt;绍兴图书馆&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-    </row>
-    <row r="61" spans="2:22">
-      <c r="B61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;003&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.diyijc.com/"&gt;小初高丨大学职场丨第一教程网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;033&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.gxlib.org.cn/"&gt;广西壮族自治区图书馆&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-    </row>
-    <row r="62" spans="2:22">
-      <c r="B62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;004&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.autopiano.cn/"&gt;自由钢琴&lt;/a&gt;&lt;/td&gt;&lt;td&gt;034&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.gzlib.org/"&gt;贵州数字图书馆&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-    </row>
-    <row r="63" spans="2:22">
-      <c r="B63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;005&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.qinzibuy.com/"&gt;幼儿园学习网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;035&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.ccelib.cn/"&gt;长春市图书馆&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-    </row>
-    <row r="64" spans="2:22">
-      <c r="B64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;006&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.sdchild.com/download/"&gt;幼教资源共享&lt;/a&gt;&lt;/td&gt;&lt;td&gt;036&lt;/td&gt;&lt;td&gt;&lt;a href="http://virtual.vizen.cn/"&gt;博物馆网上展览&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-    </row>
-    <row r="65" spans="2:22">
-      <c r="B65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;007&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.youjiao5.com/"&gt;幼教资源站&lt;/a&gt;&lt;/td&gt;&lt;td&gt;037&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.worlduc.com/"&gt;世界大学城&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
+    <row r="35" spans="2:17">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>190</v>
+      </c>
+      <c r="O35" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>196</v>
+      </c>
+      <c r="O36" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>202</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M38" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>208</v>
+      </c>
+      <c r="O38" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>212</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M39" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>214</v>
+      </c>
+      <c r="O39" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M40" t="s">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>220</v>
+      </c>
+      <c r="O40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>226</v>
+      </c>
+      <c r="O41" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>230</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M42" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>232</v>
+      </c>
+      <c r="O42" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M43" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>238</v>
+      </c>
+      <c r="O43" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M44" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>244</v>
+      </c>
+      <c r="O44" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>250</v>
+      </c>
+      <c r="O45" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>254</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M46" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O46" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M47" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M48" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>268</v>
+      </c>
+      <c r="O48" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>271</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>272</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M49" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>274</v>
+      </c>
+      <c r="O49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>278</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M50" t="s">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>280</v>
+      </c>
+      <c r="O50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P50" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>284</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M51" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>286</v>
+      </c>
+      <c r="O51" t="s">
+        <v>5</v>
+      </c>
+      <c r="P51" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>289</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>290</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M52" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>292</v>
+      </c>
+      <c r="O52" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>295</v>
+      </c>
+      <c r="G53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M53" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>298</v>
+      </c>
+      <c r="O53" t="s">
+        <v>5</v>
+      </c>
+      <c r="P53" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>302</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M54" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>304</v>
+      </c>
+      <c r="O54" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>307</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>308</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M55" t="s">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>310</v>
+      </c>
+      <c r="O55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P55" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="66" spans="2:22">
-      <c r="B66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;008&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zj106.com/"&gt;早教网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;038&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.gujiguan.com/"&gt;古籍館-中國最大的古籍圖書館&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-    </row>
-    <row r="67" spans="2:22">
-      <c r="B67" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;009&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wujiwuxia.com/"&gt;戊戟武侠小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;039&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wdl.org/zh/"&gt;世界数字图书馆主页&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-    </row>
-    <row r="68" spans="2:22">
-      <c r="B68" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;010&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.gulongwang.com/"&gt;古龙小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;040&lt;/td&gt;&lt;td&gt;&lt;a href="https://sobooks.cc/"&gt;SoBooks - 一起分享阅读的乐趣&lt;/a&gt;&lt;/td&gt;</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
     </row>
     <row r="69" spans="2:22">
       <c r="B69" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;011&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.jinyongwang.com/book/"&gt;金庸武侠小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;041&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.qishus.com/"&gt;奇书网&lt;/a&gt;&lt;/td&gt;</v>
+        <f>B5&amp;C5&amp;D5&amp;F5&amp;G5&amp;H5&amp;I5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5</f>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;001&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.leleketang.com/"&gt;乐乐课堂&lt;/a&gt;&lt;/td&gt;&lt;td&gt;052&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zjlib.cn/"&gt;浙江图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3223,8 +4334,8 @@
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;012&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.wuxia.net.cn/"&gt;武侠小说网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;042&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.zxcs.me/"&gt;知轩藏书&lt;/a&gt;&lt;/td&gt;</v>
+        <f t="shared" ref="B70:B101" si="0">B6&amp;C6&amp;D6&amp;F6&amp;G6&amp;H6&amp;I6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6</f>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;002&lt;/td&gt;&lt;td&gt;&lt;a href="http://1s1k.eduyun.cn/"&gt;小初高丨国家教育资源公共服务平台&lt;/a&gt;&lt;/td&gt;&lt;td&gt;053&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sxlib.com/"&gt;绍兴图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3250,7 +4361,7 @@
     <row r="71" spans="2:22">
       <c r="B71" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;013&lt;/td&gt;&lt;td&gt;&lt;a href="https://github.com//"&gt;github&lt;/a&gt;&lt;/td&gt;&lt;td&gt;043&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.jiumodiary.com/"&gt;鸠摩搜索&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;003&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.diyijc.com/"&gt;小初高丨大学职场丨第一教程网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;054&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.gxlib.org.cn/"&gt;广西壮族自治区图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3276,7 +4387,7 @@
     <row r="72" spans="2:22">
       <c r="B72" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;014&lt;/td&gt;&lt;td&gt;&lt;a href="https://gitee.com//"&gt;码云&lt;/a&gt;&lt;/td&gt;&lt;td&gt;044&lt;/td&gt;&lt;td&gt;&lt;a href="http://cn.epubee.com/books/"&gt;ePUBee电子书库&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;004&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.autopiano.cn/"&gt;自由钢琴&lt;/a&gt;&lt;/td&gt;&lt;td&gt;055&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.gzlib.org/"&gt;贵州数字图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3302,7 +4413,7 @@
     <row r="73" spans="2:22">
       <c r="B73" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;015&lt;/td&gt;&lt;td&gt;&lt;a href="https://youquhome.com//"&gt;有趣网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;045&lt;/td&gt;&lt;td&gt;&lt;a href="https://new.shuge.org/"&gt;书格&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;005&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.qinzibuy.com/"&gt;幼儿园学习网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;056&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.ccelib.cn/"&gt;长春市图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3328,7 +4439,7 @@
     <row r="74" spans="2:22">
       <c r="B74" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;016&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.bigpixel.cn//"&gt;千亿像素看中国&lt;/a&gt;&lt;/td&gt;&lt;td&gt;046&lt;/td&gt;&lt;td&gt;&lt;a href="https://gfsoso.99lb.net/"&gt;谷粉学术&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;006&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.sdchild.com/download/"&gt;幼教资源共享&lt;/a&gt;&lt;/td&gt;&lt;td&gt;057&lt;/td&gt;&lt;td&gt;&lt;a href="http://virtual.vizen.cn/"&gt;博物馆网上展览&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3354,7 +4465,7 @@
     <row r="75" spans="2:22">
       <c r="B75" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;017&lt;/td&gt;&lt;td&gt;&lt;a href="https://lab.magiconch.com/nbnhhsh//"&gt;能不能好好说话？&lt;/a&gt;&lt;/td&gt;&lt;td&gt;047&lt;/td&gt;&lt;td&gt;&lt;a href="https://zhuanlan.zhihu.com/p/191065264/"&gt;各类镜像网站&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;007&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.youjiao5.com/"&gt;幼教资源站&lt;/a&gt;&lt;/td&gt;&lt;td&gt;058&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.worlduc.com/"&gt;世界大学城&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3380,7 +4491,7 @@
     <row r="76" spans="2:22">
       <c r="B76" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;018&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.mywifisign.com/zh-hans/"&gt;我的WiFi卡片&lt;/a&gt;&lt;/td&gt;&lt;td&gt;048&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.dgclouds.net/"&gt;谷歌镜像1&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;008&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zj106.com/"&gt;早教网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;059&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.gujiguan.com/"&gt;古籍館-中國最大的古籍圖書館&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3406,7 +4517,7 @@
     <row r="77" spans="2:22">
       <c r="B77" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;019&lt;/td&gt;&lt;td&gt;&lt;a href="https://mygraphpaper.com//"&gt;方格纸&lt;/a&gt;&lt;/td&gt;&lt;td&gt;049&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.caduo.ml/"&gt;谷歌镜像2&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;009&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wujiwuxia.com/"&gt;戊戟武侠小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;060&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wdl.org/zh/"&gt;世界数字图书馆主页&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3432,7 +4543,7 @@
     <row r="78" spans="2:22">
       <c r="B78" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;020&lt;/td&gt;&lt;td&gt;&lt;a href="https://maiba.fun//"&gt;首富模拟器 - 买吧&lt;/a&gt;&lt;/td&gt;&lt;td&gt;050&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.google-fix.com/"&gt;谷歌镜像3&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;010&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.gulongwang.com/"&gt;古龙小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;061&lt;/td&gt;&lt;td&gt;&lt;a href="https://sobooks.cc/"&gt;SoBooks - 一起分享阅读的乐趣&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3458,7 +4569,7 @@
     <row r="79" spans="2:22">
       <c r="B79" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;021&lt;/td&gt;&lt;td&gt;&lt;a href="http://qingwendang.com//"&gt;随时云U盘&lt;/a&gt;&lt;/td&gt;&lt;td&gt;051&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sanzhima.com/"&gt;谷歌镜像4&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;011&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.jinyongwang.com/book/"&gt;金庸武侠小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;062&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.qishus.com/"&gt;奇书网&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3484,7 +4595,7 @@
     <row r="80" spans="2:22">
       <c r="B80" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;022&lt;/td&gt;&lt;td&gt;&lt;a href="http://illusionoftheyear.com//"&gt;全球视错觉权威官网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;052&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wanweibaike.com/"&gt;万维百科&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;012&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.wuxia.net.cn/"&gt;武侠小说网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;063&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.zxcs.me/"&gt;知轩藏书&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3510,7 +4621,7 @@
     <row r="81" spans="2:22">
       <c r="B81" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;023&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;053&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.chromefor.com/"&gt;Chrome插件&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;013&lt;/td&gt;&lt;td&gt;&lt;a href="https://github.com/"&gt;github&lt;/a&gt;&lt;/td&gt;&lt;td&gt;064&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.jiumodiary.com/"&gt;鸠摩搜索&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3536,7 +4647,7 @@
     <row r="82" spans="2:22">
       <c r="B82" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;024&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;054&lt;/td&gt;&lt;td&gt;&lt;a href="http://kyon945.ys168.com/"&gt;阿虚同学的储物间&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;014&lt;/td&gt;&lt;td&gt;&lt;a href="https://gitee.com/"&gt;码云&lt;/a&gt;&lt;/td&gt;&lt;td&gt;065&lt;/td&gt;&lt;td&gt;&lt;a href="http://cn.epubee.com/books/"&gt;ePUBee电子书库&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3562,7 +4673,7 @@
     <row r="83" spans="2:22">
       <c r="B83" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;025&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;055&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.huanghunxiao.com/"&gt;魔音MORIN&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;015&lt;/td&gt;&lt;td&gt;&lt;a href="https://youquhome.com/"&gt;有趣网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;066&lt;/td&gt;&lt;td&gt;&lt;a href="https://new.shuge.org/"&gt;书格&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3588,7 +4699,7 @@
     <row r="84" spans="2:22">
       <c r="B84" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;026&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;056&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.imooc.com/"&gt;慕课网&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;016&lt;/td&gt;&lt;td&gt;&lt;a href="https://lab.magiconch.com/nbnhhsh/"&gt;能不能好好说话？&lt;/a&gt;&lt;/td&gt;&lt;td&gt;067&lt;/td&gt;&lt;td&gt;&lt;a href="https://gfsoso.99lb.net/"&gt;谷粉学术&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3614,7 +4725,7 @@
     <row r="85" spans="2:22">
       <c r="B85" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;027&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;057&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;017&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.mywifisign.com/zh-hans/"&gt;我的WiFi卡片&lt;/a&gt;&lt;/td&gt;&lt;td&gt;068&lt;/td&gt;&lt;td&gt;&lt;a href="https://zhuanlan.zhihu.com/p/191065264/"&gt;各类镜像网站&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3640,7 +4751,7 @@
     <row r="86" spans="2:22">
       <c r="B86" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;028&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;058&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;018&lt;/td&gt;&lt;td&gt;&lt;a href="https://mygraphpaper.com/"&gt;方格纸&lt;/a&gt;&lt;/td&gt;&lt;td&gt;069&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.dgclouds.net/"&gt;谷歌镜像1&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3666,7 +4777,7 @@
     <row r="87" spans="2:22">
       <c r="B87" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;029&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;059&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;019&lt;/td&gt;&lt;td&gt;&lt;a href="https://maiba.fun/"&gt;首富模拟器 - 买吧&lt;/a&gt;&lt;/td&gt;&lt;td&gt;070&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.caduo.ml/"&gt;谷歌镜像2&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3692,7 +4803,7 @@
     <row r="88" spans="2:22">
       <c r="B88" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;030&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;&lt;td&gt;060&lt;/td&gt;&lt;td&gt;&lt;a href="#/"&gt;#&lt;/a&gt;&lt;/td&gt;</v>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;020&lt;/td&gt;&lt;td&gt;&lt;a href="http://qingwendang.com/"&gt;随时云U盘&lt;/a&gt;&lt;/td&gt;&lt;td&gt;071&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.google-fix.com/"&gt;谷歌镜像3&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3717,8 +4828,8 @@
     </row>
     <row r="89" spans="2:22">
       <c r="B89" s="4" t="str">
-        <f t="shared" ref="B85:B100" si="1">B35&amp;C35&amp;D35&amp;F35&amp;G35&amp;H35&amp;I35&amp;K35&amp;L35&amp;M35&amp;N35&amp;O35&amp;P35&amp;Q35</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;021&lt;/td&gt;&lt;td&gt;&lt;a href="http://illusionoftheyear.com/"&gt;全球视错觉权威官网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;072&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sanzhima.com/"&gt;谷歌镜像4&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3743,8 +4854,8 @@
     </row>
     <row r="90" spans="2:22">
       <c r="B90" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;022&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.qiushibaike.com/"&gt;糗事百科&lt;/a&gt;&lt;/td&gt;&lt;td&gt;073&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wanweibaike.com/"&gt;万维百科&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3769,8 +4880,8 @@
     </row>
     <row r="91" spans="2:22">
       <c r="B91" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;023&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.petercallesen.com/home/"&gt;A4 创意&lt;/a&gt;&lt;/td&gt;&lt;td&gt;074&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.chromefor.com/"&gt;Chrome插件&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3795,8 +4906,8 @@
     </row>
     <row r="92" spans="2:22">
       <c r="B92" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;024&lt;/td&gt;&lt;td&gt;&lt;a href="https://photoshop.adobe.com/"&gt;在线PS&lt;/a&gt;&lt;/td&gt;&lt;td&gt;075&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.2qq.net/map/"&gt;首夫托拉基斯基的卫星&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3821,8 +4932,8 @@
     </row>
     <row r="93" spans="2:22">
       <c r="B93" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;025&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.earthcam.com/"&gt;世界各地的实时摄像头监控&lt;/a&gt;&lt;/td&gt;&lt;td&gt;076&lt;/td&gt;&lt;td&gt;&lt;a href="http://kyon945.ys168.com/"&gt;阿虚同学的储物间&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3847,8 +4958,8 @@
     </row>
     <row r="94" spans="2:22">
       <c r="B94" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;026&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.itmop.com/zhuanti/zz.html/"&gt;软件资源集合&lt;/a&gt;&lt;/td&gt;&lt;td&gt;077&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.huanghunxiao.com/"&gt;魔音MORIN&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3873,8 +4984,8 @@
     </row>
     <row r="95" spans="2:22">
       <c r="B95" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;027&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.languageguide.org/cn//"&gt;学习一门语言&lt;/a&gt;&lt;/td&gt;&lt;td&gt;078&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.imooc.com/"&gt;慕课网&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3899,8 +5010,8 @@
     </row>
     <row r="96" spans="2:22">
       <c r="B96" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;028&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.getitfree.cn/"&gt;正版中国 | 正版软件限时免费&lt;/a&gt;&lt;/td&gt;&lt;td&gt;079&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sigoo.com/"&gt;极像素-超高像素看世界&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -3925,8 +5036,8 @@
     </row>
     <row r="97" spans="2:22">
       <c r="B97" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;029&lt;/td&gt;&lt;td&gt;&lt;a href="https://msdn.itellyou.cn/"&gt;MSDN, 我告诉你&lt;/a&gt;&lt;/td&gt;&lt;td&gt;080&lt;/td&gt;&lt;td&gt;&lt;a href="https://airpano.org.cn/"&gt;全球360°虚拟游览&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -3951,8 +5062,8 @@
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;030&lt;/td&gt;&lt;td&gt;&lt;a href="https://cn.office-converter.com//"&gt;在线转换器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;081&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.airpano.com/"&gt;AirPano—— 在家躺着也能环游世界&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3977,8 +5088,8 @@
     </row>
     <row r="99" spans="2:22">
       <c r="B99" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;031&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.foldnfly.com/#/1-1-1-1-1-1-1-1-2/"&gt;全网最全叠飞机&lt;/a&gt;&lt;/td&gt;&lt;td&gt;082&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.bigpixel.cn/"&gt;千亿像素看中国&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -4003,8 +5114,8 @@
     </row>
     <row r="100" spans="2:22">
       <c r="B100" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;032&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.5ce.com/"&gt;内容神器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;083&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.9866.cn/"&gt;9866趣站&lt;/a&gt;&lt;/td&gt;</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -4027,19 +5138,529 @@
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
     </row>
+    <row r="101" spans="2:22">
+      <c r="B101" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;033&lt;/td&gt;&lt;td&gt;&lt;a href="http://tinypng.com/"&gt;图片无损压缩&lt;/a&gt;&lt;/td&gt;&lt;td&gt;084&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.rdonly.com/"&gt;只读&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+    </row>
+    <row r="102" spans="2:22">
+      <c r="B102" s="4" t="str">
+        <f t="shared" ref="B102:B120" si="1">B38&amp;C38&amp;D38&amp;F38&amp;G38&amp;H38&amp;I38&amp;K38&amp;L38&amp;M38&amp;N38&amp;O38&amp;P38&amp;Q38</f>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;034&lt;/td&gt;&lt;td&gt;&lt;a href="https://bigjpg.com/zh/"&gt;图片无损放大&lt;/a&gt;&lt;/td&gt;&lt;td&gt;085&lt;/td&gt;&lt;td&gt;&lt;a href="http://guozhivip.com/lab/"&gt;果汁实验室 - 发现国内外优质网站&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+    </row>
+    <row r="103" spans="2:22">
+      <c r="B103" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;035&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.bittorrent.com/"&gt;电影看个够&lt;/a&gt;&lt;/td&gt;&lt;td&gt;086&lt;/td&gt;&lt;td&gt;&lt;a href="http://n.lackk.com/"&gt;兰客书签&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+    </row>
+    <row r="104" spans="2:22">
+      <c r="B104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;036&lt;/td&gt;&lt;td&gt;&lt;a href="https://web.archive.org/"&gt;互联网档案库&lt;/a&gt;&lt;/td&gt;&lt;td&gt;087&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zhihu.com/question/47334820/answer/720729006/"&gt;冷门网站？&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+    </row>
+    <row r="105" spans="2:22">
+      <c r="B105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;037&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.artic.edu/collection/"&gt;芝加哥（艺术）博物馆&lt;/a&gt;&lt;/td&gt;&lt;td&gt;088&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.weiciyun.com/"&gt;文字云艺术生成器&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+    </row>
+    <row r="106" spans="2:22">
+      <c r="B106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;038&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.fotor.com.cn/"&gt;​Fotor懒设计&lt;/a&gt;&lt;/td&gt;&lt;td&gt;089&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.cbaigui.com/"&gt;知妖（中国妖怪百集）&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+    </row>
+    <row r="107" spans="2:22">
+      <c r="B107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;039&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.allhistory.com/"&gt;全历史&lt;/a&gt;&lt;/td&gt;&lt;td&gt;090&lt;/td&gt;&lt;td&gt;&lt;a href="https://beecut.cn/online-video-editor/"&gt;免费在线视频制作&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+    </row>
+    <row r="108" spans="2:22">
+      <c r="B108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;040&lt;/td&gt;&lt;td&gt;&lt;a href="https://neal.fun/spend/"&gt;体验一下富豪的生活&lt;/a&gt;&lt;/td&gt;&lt;td&gt;091&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.seeseed.com/"&gt;Seeseed-无穷尽设计可能&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+    </row>
+    <row r="109" spans="2:22">
+      <c r="B109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;041&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.nows.fun/"&gt;毒鸡汤&lt;/a&gt;&lt;/td&gt;&lt;td&gt;092&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.ku68.com/"&gt;酷奇&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+    </row>
+    <row r="110" spans="2:22">
+      <c r="B110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;042&lt;/td&gt;&lt;td&gt;&lt;a href="https://chp.shadiao.app/"&gt;彩虹屁生成器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;093&lt;/td&gt;&lt;td&gt;&lt;a href="https://creatorsdaily.com/"&gt;创造者日报&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+    </row>
+    <row r="111" spans="2:22">
+      <c r="B111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;043&lt;/td&gt;&lt;td&gt;&lt;a href="http://jetli.com.cn/"&gt;国内外最好玩有趣的网站导航&lt;/a&gt;&lt;/td&gt;&lt;td&gt;094&lt;/td&gt;&lt;td&gt;&lt;a href="https://10minutemail.net/"&gt;10分钟邮箱&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+    </row>
+    <row r="112" spans="2:22">
+      <c r="B112" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;044&lt;/td&gt;&lt;td&gt;&lt;a href="https://daohang.youyisi8.com/"&gt;有意思导航 &lt;/a&gt;&lt;/td&gt;&lt;td&gt;095&lt;/td&gt;&lt;td&gt;&lt;a href="https://dazi.kukuw.com/"&gt;在线打字测试&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+    </row>
+    <row r="113" spans="2:22">
+      <c r="B113" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;045&lt;/td&gt;&lt;td&gt;&lt;a href="https://touduyu.com/sites/"&gt;趣站_偷渡鱼网址导航&lt;/a&gt;&lt;/td&gt;&lt;td&gt;096&lt;/td&gt;&lt;td&gt;&lt;a href="https://papago.naver.com/"&gt;Papago：中日韩 翻译&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+    </row>
+    <row r="114" spans="2:22">
+      <c r="B114" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;046&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.xiwnn.com/piano/"&gt;在线钢琴模拟器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;097&lt;/td&gt;&lt;td&gt;&lt;a href="https://wordart.com/"&gt;WordArt－文字/词云图片生成器&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+    </row>
+    <row r="115" spans="2:22">
+      <c r="B115" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;047&lt;/td&gt;&lt;td&gt;&lt;a href="https://aipix.net/?lang=zh/"&gt;AI智能抠图_AIpix&lt;/a&gt;&lt;/td&gt;&lt;td&gt;098&lt;/td&gt;&lt;td&gt;&lt;a href="https://sou-yun.cn/"&gt;搜韵-诗词门户网站&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+    </row>
+    <row r="116" spans="2:22">
+      <c r="B116" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;048&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.tool22.com/"&gt;兔二工具&lt;/a&gt;&lt;/td&gt;&lt;td&gt;099&lt;/td&gt;&lt;td&gt;&lt;a href="http://huatu.xuanheng05.cn/"&gt;在线思维导图、流程图&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+    </row>
+    <row r="117" spans="2:22">
+      <c r="B117" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;049&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.57994.com/"&gt;微信公众平台导航&lt;/a&gt;&lt;/td&gt;&lt;td&gt;100&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.oalib.com/"&gt;Open Access Library (OA图书馆)&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+    </row>
+    <row r="118" spans="2:22">
+      <c r="B118" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;050&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.anyknew.com/#/"&gt;全网热点&lt;/a&gt;&lt;/td&gt;&lt;td&gt;101&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.pptbz.com/"&gt;PPT宝藏&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+    </row>
+    <row r="119" spans="2:22">
+      <c r="B119" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="gradeX"&gt;&lt;td&gt;051&lt;/td&gt;&lt;td&gt;&lt;a href="https://tophub.today/"&gt;今日热榜官网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;102&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.examcoo.com/"&gt;电子作业与在线考试平台&lt;/a&gt;&lt;/td&gt;</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+    </row>
+    <row r="120" spans="2:22">
+      <c r="B120" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B56:V56"/>
-    <mergeCell ref="B59:V59"/>
-    <mergeCell ref="B60:V60"/>
-    <mergeCell ref="B61:V61"/>
-    <mergeCell ref="B62:V62"/>
-    <mergeCell ref="B63:V63"/>
-    <mergeCell ref="B64:V64"/>
-    <mergeCell ref="B65:V65"/>
+  <mergeCells count="53">
     <mergeCell ref="B66:V66"/>
-    <mergeCell ref="B67:V67"/>
-    <mergeCell ref="B68:V68"/>
     <mergeCell ref="B69:V69"/>
     <mergeCell ref="B70:V70"/>
     <mergeCell ref="B71:V71"/>
@@ -4072,9 +5693,34 @@
     <mergeCell ref="B98:V98"/>
     <mergeCell ref="B99:V99"/>
     <mergeCell ref="B100:V100"/>
+    <mergeCell ref="B101:V101"/>
+    <mergeCell ref="B102:V102"/>
+    <mergeCell ref="B103:V103"/>
+    <mergeCell ref="B104:V104"/>
+    <mergeCell ref="B105:V105"/>
+    <mergeCell ref="B106:V106"/>
+    <mergeCell ref="B107:V107"/>
+    <mergeCell ref="B108:V108"/>
+    <mergeCell ref="B109:V109"/>
+    <mergeCell ref="B110:V110"/>
+    <mergeCell ref="B111:V111"/>
+    <mergeCell ref="B112:V112"/>
+    <mergeCell ref="B113:V113"/>
+    <mergeCell ref="B114:V114"/>
+    <mergeCell ref="B115:V115"/>
+    <mergeCell ref="B116:V116"/>
+    <mergeCell ref="B117:V117"/>
+    <mergeCell ref="B118:V118"/>
+    <mergeCell ref="B119:V119"/>
+    <mergeCell ref="B120:V120"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1" display="全球视错觉权威官网" tooltip="https://youquhome.com/8621/"/>
+    <hyperlink ref="H25" r:id="rId1" display="全球视错觉权威官网" tooltip="https://youquhome.com/8621/"/>
+    <hyperlink ref="H29" r:id="rId2" display="世界各地的实时摄像头监控" tooltip="https://youquhome.com/524/"/>
+    <hyperlink ref="H40" r:id="rId3" display="互联网档案库" tooltip="https://link.zhihu.com/?target=https://web.archive.org/"/>
+    <hyperlink ref="H41" r:id="rId4" display="芝加哥（艺术）博物馆" tooltip="https://link.zhihu.com/?target=https://www.artic.edu/collection"/>
+    <hyperlink ref="P34" r:id="rId5" display="AirPano—— 在家躺着也能环游世界" tooltip="https://link.zhihu.com/?target=https://www.airpano.com/"/>
+    <hyperlink ref="P50" r:id="rId6" display="WordArt－文字/词云图片生成器" tooltip="https://wordart.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/wz/12.xlsx
+++ b/wz/12.xlsx
@@ -4,17 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="393">
+  <si>
+    <t>http://www.lib.wh.sdu.edu.cn/cn/</t>
+  </si>
+  <si>
+    <t>山东大学（威海）图书馆</t>
+  </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -950,6 +957,243 @@
   </si>
   <si>
     <t>电子作业与在线考试平台</t>
+  </si>
+  <si>
+    <t>https://www.52pojie.cn/</t>
+  </si>
+  <si>
+    <t>吾爱破解</t>
+  </si>
+  <si>
+    <t>http://www.softtone.cn/</t>
+  </si>
+  <si>
+    <t>软件通</t>
+  </si>
+  <si>
+    <t>http://www.cnkie.net/</t>
+  </si>
+  <si>
+    <t>中国期刊全文数据库</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="</t>
+  </si>
+  <si>
+    <t>/" target="iframe_a"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="http://hao.bigdata.ren/" target="iframe_a"&gt;大数据导航&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>职业全能培训库</t>
+  </si>
+  <si>
+    <t>https://zyk.bjadks.com/</t>
+  </si>
+  <si>
+    <t>翼狐设计学习资源库</t>
+  </si>
+  <si>
+    <t>https://www.yiihuu.com/</t>
+  </si>
+  <si>
+    <t>中科考试学习资源数据库</t>
+  </si>
+  <si>
+    <t>http://www.vipexam.cn/</t>
+  </si>
+  <si>
+    <t>优米职场沐课库</t>
+  </si>
+  <si>
+    <t>http://ym.mukeku.com/</t>
+  </si>
+  <si>
+    <t>优米-助力创业者成长</t>
+  </si>
+  <si>
+    <t>http://www.youmi.cn/</t>
+  </si>
+  <si>
+    <t>维普考试服务平台</t>
+  </si>
+  <si>
+    <t>http://vers.cqvip.com/</t>
+  </si>
+  <si>
+    <t>银符在线考试模拟题库</t>
+  </si>
+  <si>
+    <t>https://www.yfzxmn.cn/</t>
+  </si>
+  <si>
+    <t>易趣少儿数字图书馆</t>
+  </si>
+  <si>
+    <t>http://yiqulibrary.3eol.com.cn/</t>
+  </si>
+  <si>
+    <t>小翰林书法学院</t>
+  </si>
+  <si>
+    <t>http://yiqulibrary.3eol.com.cn/hanlin/index.php</t>
+  </si>
+  <si>
+    <t>新语数字图书管</t>
+  </si>
+  <si>
+    <t>http://www.xinyulib.com.cn/</t>
+  </si>
+  <si>
+    <t>乐儿数字资源平台</t>
+  </si>
+  <si>
+    <t>http://leer.gzlib.com.cn/</t>
+  </si>
+  <si>
+    <t>澳通乐儿</t>
+  </si>
+  <si>
+    <t>http://www.alltopdesign.com/</t>
+  </si>
+  <si>
+    <t>电子书</t>
+  </si>
+  <si>
+    <t>FreeBookSpot</t>
+  </si>
+  <si>
+    <t>http://www.freebookspot.es</t>
+  </si>
+  <si>
+    <t>4eBooks</t>
+  </si>
+  <si>
+    <t>http://4ebooks.org</t>
+  </si>
+  <si>
+    <t>Free-eBooks</t>
+  </si>
+  <si>
+    <t>http://www.free-ebooks.net</t>
+  </si>
+  <si>
+    <t>ManyBooks</t>
+  </si>
+  <si>
+    <t>http://manybooks.net</t>
+  </si>
+  <si>
+    <t>GetFreeEBooks</t>
+  </si>
+  <si>
+    <t>http://www.getfreeebooks.com</t>
+  </si>
+  <si>
+    <t>FreeComputerBooks</t>
+  </si>
+  <si>
+    <t>http://freecomputerbooks.com</t>
+  </si>
+  <si>
+    <t>FreeTechBooks</t>
+  </si>
+  <si>
+    <t>http://www.freetechbooks.com</t>
+  </si>
+  <si>
+    <t>Scribd</t>
+  </si>
+  <si>
+    <t>http://www.scribd.com</t>
+  </si>
+  <si>
+    <t>Globusz</t>
+  </si>
+  <si>
+    <t>http://www.globusz.com</t>
+  </si>
+  <si>
+    <t>KnowFree</t>
+  </si>
+  <si>
+    <t>http://knowfree.net</t>
+  </si>
+  <si>
+    <t>OnlineFreeEBooks</t>
+  </si>
+  <si>
+    <t>http://www.onlinefreebooks.net</t>
+  </si>
+  <si>
+    <t>MemoWare</t>
+  </si>
+  <si>
+    <t>http://www.memoware.com</t>
+  </si>
+  <si>
+    <t>OnlineComputerBooks</t>
+  </si>
+  <si>
+    <t>http://www.onlinecomputerbooks.com</t>
+  </si>
+  <si>
+    <t>SnipFiles</t>
+  </si>
+  <si>
+    <t>http://www.snipfiles.com</t>
+  </si>
+  <si>
+    <t>BookYards</t>
+  </si>
+  <si>
+    <t>http://www.bookyards.com</t>
+  </si>
+  <si>
+    <t>TheOnlineBooksPage</t>
+  </si>
+  <si>
+    <t>http://digital.library.upenn.edu/books</t>
+  </si>
+  <si>
+    <t>BaenFreeLibrary</t>
+  </si>
+  <si>
+    <t>http://www.baen.com</t>
+  </si>
+  <si>
+    <t>eBookLobby</t>
+  </si>
+  <si>
+    <t>http://www.ebooklobby.com</t>
+  </si>
+  <si>
+    <t>PlanetPDF</t>
+  </si>
+  <si>
+    <t>http://www.planetpdf.com</t>
+  </si>
+  <si>
+    <t>DailyLit</t>
+  </si>
+  <si>
+    <t>http://www.dailylit.com</t>
+  </si>
+  <si>
+    <t>Wikibooks</t>
+  </si>
+  <si>
+    <t>http://en.wikibooks.org/wiki/Main_Page</t>
+  </si>
+  <si>
+    <t>Dwalin</t>
+  </si>
+  <si>
+    <t>http://dwalin.ru/books</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1206,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,117 +1215,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color rgb="FFDD1A00"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1100,18 +1251,123 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1142,7 +1398,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,7 +1482,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,151 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,38 +1598,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,6 +1639,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1419,20 +1678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,10 +1700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1456,138 +1712,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1921,10 +2192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:V120"/>
+  <dimension ref="B3:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B119" sqref="B69:V119"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A63" sqref="$A63:$XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1944,3719 +2215,3751 @@
     <col min="17" max="17" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="14:16">
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="Q5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="Q10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="M11" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="O11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="M14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="M15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:17">
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="M16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="M18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="M20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="M21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="M22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>117</v>
+        <v>10</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="M23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:17">
       <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>123</v>
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="M24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="M25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>135</v>
+        <v>10</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="M26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:17">
       <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="M27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>147</v>
+        <v>10</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="M28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>3</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>153</v>
+        <v>10</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="M29" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>154</v>
+        <v>5</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="O29" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>155</v>
+        <v>7</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="Q29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>3</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>159</v>
+        <v>10</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="M30" t="s">
-        <v>3</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>160</v>
+        <v>5</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="O30" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>161</v>
+        <v>7</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="Q30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>162</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>165</v>
+        <v>10</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="M31" t="s">
-        <v>3</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>166</v>
+        <v>5</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="O31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>167</v>
+        <v>7</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="Q31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:17">
       <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>168</v>
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>171</v>
+        <v>10</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="M32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:17">
       <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="M33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:17">
       <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>3</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K34" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>183</v>
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="M34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:17">
       <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>3</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>189</v>
+        <v>10</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="M35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:17">
       <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>192</v>
+        <v>3</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>195</v>
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="M36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>198</v>
+        <v>3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>201</v>
+        <v>10</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="M37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>204</v>
+        <v>3</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>207</v>
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="M38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>210</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>213</v>
+        <v>10</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="M39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>216</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="M40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>222</v>
+        <v>3</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>225</v>
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="M41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>228</v>
+        <v>3</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>231</v>
+        <v>10</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="M42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>234</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K43" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>237</v>
+        <v>10</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="M43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>240</v>
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>243</v>
+        <v>10</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="M44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:17">
       <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>246</v>
+        <v>3</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K45" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>249</v>
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:17">
       <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>252</v>
+        <v>3</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K46" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>255</v>
+        <v>10</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="M46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:17">
       <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>258</v>
+        <v>3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K47" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>261</v>
+        <v>10</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="M47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P47" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:17">
       <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>264</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>267</v>
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="M48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:17">
       <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>270</v>
+        <v>3</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>273</v>
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="M49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P49" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:17">
       <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>276</v>
+        <v>3</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>279</v>
+        <v>10</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="M50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P50" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>282</v>
+        <v>3</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>285</v>
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="M51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P51" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>288</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>291</v>
+        <v>10</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="M52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P52" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="2:17">
       <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>294</v>
+        <v>3</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K53" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>297</v>
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="M53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P53" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="2:17">
       <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>300</v>
+        <v>3</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>303</v>
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="M54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P54" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="2:17">
       <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>306</v>
+        <v>3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>309</v>
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="M55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P55" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q55" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" t="s">
+        <v>316</v>
+      </c>
+      <c r="H57" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" t="s">
+        <v>318</v>
+      </c>
+      <c r="H58" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="2:22">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
     </row>
     <row r="69" spans="2:22">
-      <c r="B69" s="4" t="str">
+      <c r="B69" s="9" t="str">
         <f>B5&amp;C5&amp;D5&amp;F5&amp;G5&amp;H5&amp;I5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5</f>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;001&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.leleketang.com/"&gt;乐乐课堂&lt;/a&gt;&lt;/td&gt;&lt;td&gt;052&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zjlib.cn/"&gt;浙江图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
     </row>
     <row r="70" spans="2:22">
-      <c r="B70" s="4" t="str">
+      <c r="B70" s="9" t="str">
         <f t="shared" ref="B70:B101" si="0">B6&amp;C6&amp;D6&amp;F6&amp;G6&amp;H6&amp;I6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6</f>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;002&lt;/td&gt;&lt;td&gt;&lt;a href="http://1s1k.eduyun.cn/"&gt;小初高丨国家教育资源公共服务平台&lt;/a&gt;&lt;/td&gt;&lt;td&gt;053&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sxlib.com/"&gt;绍兴图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
     </row>
     <row r="71" spans="2:22">
-      <c r="B71" s="4" t="str">
+      <c r="B71" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;003&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.diyijc.com/"&gt;小初高丨大学职场丨第一教程网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;054&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.gxlib.org.cn/"&gt;广西壮族自治区图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
     </row>
     <row r="72" spans="2:22">
-      <c r="B72" s="4" t="str">
+      <c r="B72" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;004&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.autopiano.cn/"&gt;自由钢琴&lt;/a&gt;&lt;/td&gt;&lt;td&gt;055&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.gzlib.org/"&gt;贵州数字图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
     </row>
     <row r="73" spans="2:22">
-      <c r="B73" s="4" t="str">
+      <c r="B73" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;005&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.qinzibuy.com/"&gt;幼儿园学习网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;056&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.ccelib.cn/"&gt;长春市图书馆&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
     </row>
     <row r="74" spans="2:22">
-      <c r="B74" s="4" t="str">
+      <c r="B74" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;006&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.sdchild.com/download/"&gt;幼教资源共享&lt;/a&gt;&lt;/td&gt;&lt;td&gt;057&lt;/td&gt;&lt;td&gt;&lt;a href="http://virtual.vizen.cn/"&gt;博物馆网上展览&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
     </row>
     <row r="75" spans="2:22">
-      <c r="B75" s="4" t="str">
+      <c r="B75" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;007&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.youjiao5.com/"&gt;幼教资源站&lt;/a&gt;&lt;/td&gt;&lt;td&gt;058&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.worlduc.com/"&gt;世界大学城&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
     </row>
     <row r="76" spans="2:22">
-      <c r="B76" s="4" t="str">
+      <c r="B76" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;008&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zj106.com/"&gt;早教网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;059&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.gujiguan.com/"&gt;古籍館-中國最大的古籍圖書館&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
     </row>
     <row r="77" spans="2:22">
-      <c r="B77" s="4" t="str">
+      <c r="B77" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;009&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wujiwuxia.com/"&gt;戊戟武侠小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;060&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wdl.org/zh/"&gt;世界数字图书馆主页&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
     </row>
     <row r="78" spans="2:22">
-      <c r="B78" s="4" t="str">
+      <c r="B78" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;010&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.gulongwang.com/"&gt;古龙小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;061&lt;/td&gt;&lt;td&gt;&lt;a href="https://sobooks.cc/"&gt;SoBooks - 一起分享阅读的乐趣&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
     </row>
     <row r="79" spans="2:22">
-      <c r="B79" s="4" t="str">
+      <c r="B79" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;011&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.jinyongwang.com/book/"&gt;金庸武侠小说全集&lt;/a&gt;&lt;/td&gt;&lt;td&gt;062&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.qishus.com/"&gt;奇书网&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
     </row>
     <row r="80" spans="2:22">
-      <c r="B80" s="4" t="str">
+      <c r="B80" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;012&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.wuxia.net.cn/"&gt;武侠小说网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;063&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.zxcs.me/"&gt;知轩藏书&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
     </row>
     <row r="81" spans="2:22">
-      <c r="B81" s="4" t="str">
+      <c r="B81" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;013&lt;/td&gt;&lt;td&gt;&lt;a href="https://github.com/"&gt;github&lt;/a&gt;&lt;/td&gt;&lt;td&gt;064&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.jiumodiary.com/"&gt;鸠摩搜索&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
     </row>
     <row r="82" spans="2:22">
-      <c r="B82" s="4" t="str">
+      <c r="B82" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;014&lt;/td&gt;&lt;td&gt;&lt;a href="https://gitee.com/"&gt;码云&lt;/a&gt;&lt;/td&gt;&lt;td&gt;065&lt;/td&gt;&lt;td&gt;&lt;a href="http://cn.epubee.com/books/"&gt;ePUBee电子书库&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
     </row>
     <row r="83" spans="2:22">
-      <c r="B83" s="4" t="str">
+      <c r="B83" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;015&lt;/td&gt;&lt;td&gt;&lt;a href="https://youquhome.com/"&gt;有趣网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;066&lt;/td&gt;&lt;td&gt;&lt;a href="https://new.shuge.org/"&gt;书格&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
     </row>
     <row r="84" spans="2:22">
-      <c r="B84" s="4" t="str">
+      <c r="B84" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;016&lt;/td&gt;&lt;td&gt;&lt;a href="https://lab.magiconch.com/nbnhhsh/"&gt;能不能好好说话？&lt;/a&gt;&lt;/td&gt;&lt;td&gt;067&lt;/td&gt;&lt;td&gt;&lt;a href="https://gfsoso.99lb.net/"&gt;谷粉学术&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
     </row>
     <row r="85" spans="2:22">
-      <c r="B85" s="4" t="str">
+      <c r="B85" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;017&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.mywifisign.com/zh-hans/"&gt;我的WiFi卡片&lt;/a&gt;&lt;/td&gt;&lt;td&gt;068&lt;/td&gt;&lt;td&gt;&lt;a href="https://zhuanlan.zhihu.com/p/191065264/"&gt;各类镜像网站&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
     </row>
     <row r="86" spans="2:22">
-      <c r="B86" s="4" t="str">
+      <c r="B86" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;018&lt;/td&gt;&lt;td&gt;&lt;a href="https://mygraphpaper.com/"&gt;方格纸&lt;/a&gt;&lt;/td&gt;&lt;td&gt;069&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.dgclouds.net/"&gt;谷歌镜像1&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
     </row>
     <row r="87" spans="2:22">
-      <c r="B87" s="4" t="str">
+      <c r="B87" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;019&lt;/td&gt;&lt;td&gt;&lt;a href="https://maiba.fun/"&gt;首富模拟器 - 买吧&lt;/a&gt;&lt;/td&gt;&lt;td&gt;070&lt;/td&gt;&lt;td&gt;&lt;a href="https://g.caduo.ml/"&gt;谷歌镜像2&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
     </row>
     <row r="88" spans="2:22">
-      <c r="B88" s="4" t="str">
+      <c r="B88" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;020&lt;/td&gt;&lt;td&gt;&lt;a href="http://qingwendang.com/"&gt;随时云U盘&lt;/a&gt;&lt;/td&gt;&lt;td&gt;071&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.google-fix.com/"&gt;谷歌镜像3&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
     </row>
     <row r="89" spans="2:22">
-      <c r="B89" s="4" t="str">
+      <c r="B89" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;021&lt;/td&gt;&lt;td&gt;&lt;a href="http://illusionoftheyear.com/"&gt;全球视错觉权威官网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;072&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sanzhima.com/"&gt;谷歌镜像4&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
     </row>
     <row r="90" spans="2:22">
-      <c r="B90" s="4" t="str">
+      <c r="B90" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;022&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.qiushibaike.com/"&gt;糗事百科&lt;/a&gt;&lt;/td&gt;&lt;td&gt;073&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.wanweibaike.com/"&gt;万维百科&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
     </row>
     <row r="91" spans="2:22">
-      <c r="B91" s="4" t="str">
+      <c r="B91" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;023&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.petercallesen.com/home/"&gt;A4 创意&lt;/a&gt;&lt;/td&gt;&lt;td&gt;074&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.chromefor.com/"&gt;Chrome插件&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
     </row>
     <row r="92" spans="2:22">
-      <c r="B92" s="4" t="str">
+      <c r="B92" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;024&lt;/td&gt;&lt;td&gt;&lt;a href="https://photoshop.adobe.com/"&gt;在线PS&lt;/a&gt;&lt;/td&gt;&lt;td&gt;075&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.2qq.net/map/"&gt;首夫托拉基斯基的卫星&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
     </row>
     <row r="93" spans="2:22">
-      <c r="B93" s="4" t="str">
+      <c r="B93" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;025&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.earthcam.com/"&gt;世界各地的实时摄像头监控&lt;/a&gt;&lt;/td&gt;&lt;td&gt;076&lt;/td&gt;&lt;td&gt;&lt;a href="http://kyon945.ys168.com/"&gt;阿虚同学的储物间&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
     </row>
     <row r="94" spans="2:22">
-      <c r="B94" s="4" t="str">
+      <c r="B94" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;026&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.itmop.com/zhuanti/zz.html/"&gt;软件资源集合&lt;/a&gt;&lt;/td&gt;&lt;td&gt;077&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.huanghunxiao.com/"&gt;魔音MORIN&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
     </row>
     <row r="95" spans="2:22">
-      <c r="B95" s="4" t="str">
+      <c r="B95" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;027&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.languageguide.org/cn//"&gt;学习一门语言&lt;/a&gt;&lt;/td&gt;&lt;td&gt;078&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.imooc.com/"&gt;慕课网&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
     </row>
     <row r="96" spans="2:22">
-      <c r="B96" s="4" t="str">
+      <c r="B96" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;028&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.getitfree.cn/"&gt;正版中国 | 正版软件限时免费&lt;/a&gt;&lt;/td&gt;&lt;td&gt;079&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.sigoo.com/"&gt;极像素-超高像素看世界&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
     </row>
     <row r="97" spans="2:22">
-      <c r="B97" s="4" t="str">
+      <c r="B97" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;029&lt;/td&gt;&lt;td&gt;&lt;a href="https://msdn.itellyou.cn/"&gt;MSDN, 我告诉你&lt;/a&gt;&lt;/td&gt;&lt;td&gt;080&lt;/td&gt;&lt;td&gt;&lt;a href="https://airpano.org.cn/"&gt;全球360°虚拟游览&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
     </row>
     <row r="98" spans="2:22">
-      <c r="B98" s="4" t="str">
+      <c r="B98" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;030&lt;/td&gt;&lt;td&gt;&lt;a href="https://cn.office-converter.com//"&gt;在线转换器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;081&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.airpano.com/"&gt;AirPano—— 在家躺着也能环游世界&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
     </row>
     <row r="99" spans="2:22">
-      <c r="B99" s="4" t="str">
+      <c r="B99" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;031&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.foldnfly.com/#/1-1-1-1-1-1-1-1-2/"&gt;全网最全叠飞机&lt;/a&gt;&lt;/td&gt;&lt;td&gt;082&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.bigpixel.cn/"&gt;千亿像素看中国&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
     </row>
     <row r="100" spans="2:22">
-      <c r="B100" s="4" t="str">
+      <c r="B100" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;032&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.5ce.com/"&gt;内容神器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;083&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.9866.cn/"&gt;9866趣站&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
     </row>
     <row r="101" spans="2:22">
-      <c r="B101" s="4" t="str">
+      <c r="B101" s="9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;033&lt;/td&gt;&lt;td&gt;&lt;a href="http://tinypng.com/"&gt;图片无损压缩&lt;/a&gt;&lt;/td&gt;&lt;td&gt;084&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.rdonly.com/"&gt;只读&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
     </row>
     <row r="102" spans="2:22">
-      <c r="B102" s="4" t="str">
+      <c r="B102" s="9" t="str">
         <f t="shared" ref="B102:B120" si="1">B38&amp;C38&amp;D38&amp;F38&amp;G38&amp;H38&amp;I38&amp;K38&amp;L38&amp;M38&amp;N38&amp;O38&amp;P38&amp;Q38</f>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;034&lt;/td&gt;&lt;td&gt;&lt;a href="https://bigjpg.com/zh/"&gt;图片无损放大&lt;/a&gt;&lt;/td&gt;&lt;td&gt;085&lt;/td&gt;&lt;td&gt;&lt;a href="http://guozhivip.com/lab/"&gt;果汁实验室 - 发现国内外优质网站&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
     </row>
     <row r="103" spans="2:22">
-      <c r="B103" s="4" t="str">
+      <c r="B103" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;035&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.bittorrent.com/"&gt;电影看个够&lt;/a&gt;&lt;/td&gt;&lt;td&gt;086&lt;/td&gt;&lt;td&gt;&lt;a href="http://n.lackk.com/"&gt;兰客书签&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
     </row>
     <row r="104" spans="2:22">
-      <c r="B104" s="4" t="str">
+      <c r="B104" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;036&lt;/td&gt;&lt;td&gt;&lt;a href="https://web.archive.org/"&gt;互联网档案库&lt;/a&gt;&lt;/td&gt;&lt;td&gt;087&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.zhihu.com/question/47334820/answer/720729006/"&gt;冷门网站？&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
     </row>
     <row r="105" spans="2:22">
-      <c r="B105" s="4" t="str">
+      <c r="B105" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;037&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.artic.edu/collection/"&gt;芝加哥（艺术）博物馆&lt;/a&gt;&lt;/td&gt;&lt;td&gt;088&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.weiciyun.com/"&gt;文字云艺术生成器&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
     </row>
     <row r="106" spans="2:22">
-      <c r="B106" s="4" t="str">
+      <c r="B106" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;038&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.fotor.com.cn/"&gt;​Fotor懒设计&lt;/a&gt;&lt;/td&gt;&lt;td&gt;089&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.cbaigui.com/"&gt;知妖（中国妖怪百集）&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
     </row>
     <row r="107" spans="2:22">
-      <c r="B107" s="4" t="str">
+      <c r="B107" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;039&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.allhistory.com/"&gt;全历史&lt;/a&gt;&lt;/td&gt;&lt;td&gt;090&lt;/td&gt;&lt;td&gt;&lt;a href="https://beecut.cn/online-video-editor/"&gt;免费在线视频制作&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
     </row>
     <row r="108" spans="2:22">
-      <c r="B108" s="4" t="str">
+      <c r="B108" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;040&lt;/td&gt;&lt;td&gt;&lt;a href="https://neal.fun/spend/"&gt;体验一下富豪的生活&lt;/a&gt;&lt;/td&gt;&lt;td&gt;091&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.seeseed.com/"&gt;Seeseed-无穷尽设计可能&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
     </row>
     <row r="109" spans="2:22">
-      <c r="B109" s="4" t="str">
+      <c r="B109" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;041&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.nows.fun/"&gt;毒鸡汤&lt;/a&gt;&lt;/td&gt;&lt;td&gt;092&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.ku68.com/"&gt;酷奇&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
     </row>
     <row r="110" spans="2:22">
-      <c r="B110" s="4" t="str">
+      <c r="B110" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;042&lt;/td&gt;&lt;td&gt;&lt;a href="https://chp.shadiao.app/"&gt;彩虹屁生成器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;093&lt;/td&gt;&lt;td&gt;&lt;a href="https://creatorsdaily.com/"&gt;创造者日报&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
     </row>
     <row r="111" spans="2:22">
-      <c r="B111" s="4" t="str">
+      <c r="B111" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;043&lt;/td&gt;&lt;td&gt;&lt;a href="http://jetli.com.cn/"&gt;国内外最好玩有趣的网站导航&lt;/a&gt;&lt;/td&gt;&lt;td&gt;094&lt;/td&gt;&lt;td&gt;&lt;a href="https://10minutemail.net/"&gt;10分钟邮箱&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
     </row>
     <row r="112" spans="2:22">
-      <c r="B112" s="4" t="str">
+      <c r="B112" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;044&lt;/td&gt;&lt;td&gt;&lt;a href="https://daohang.youyisi8.com/"&gt;有意思导航 &lt;/a&gt;&lt;/td&gt;&lt;td&gt;095&lt;/td&gt;&lt;td&gt;&lt;a href="https://dazi.kukuw.com/"&gt;在线打字测试&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
     </row>
     <row r="113" spans="2:22">
-      <c r="B113" s="4" t="str">
+      <c r="B113" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;045&lt;/td&gt;&lt;td&gt;&lt;a href="https://touduyu.com/sites/"&gt;趣站_偷渡鱼网址导航&lt;/a&gt;&lt;/td&gt;&lt;td&gt;096&lt;/td&gt;&lt;td&gt;&lt;a href="https://papago.naver.com/"&gt;Papago：中日韩 翻译&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
     </row>
     <row r="114" spans="2:22">
-      <c r="B114" s="4" t="str">
+      <c r="B114" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;046&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.xiwnn.com/piano/"&gt;在线钢琴模拟器&lt;/a&gt;&lt;/td&gt;&lt;td&gt;097&lt;/td&gt;&lt;td&gt;&lt;a href="https://wordart.com/"&gt;WordArt－文字/词云图片生成器&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="T114" s="4"/>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
     </row>
     <row r="115" spans="2:22">
-      <c r="B115" s="4" t="str">
+      <c r="B115" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;047&lt;/td&gt;&lt;td&gt;&lt;a href="https://aipix.net/?lang=zh/"&gt;AI智能抠图_AIpix&lt;/a&gt;&lt;/td&gt;&lt;td&gt;098&lt;/td&gt;&lt;td&gt;&lt;a href="https://sou-yun.cn/"&gt;搜韵-诗词门户网站&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
     </row>
     <row r="116" spans="2:22">
-      <c r="B116" s="4" t="str">
+      <c r="B116" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;048&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.tool22.com/"&gt;兔二工具&lt;/a&gt;&lt;/td&gt;&lt;td&gt;099&lt;/td&gt;&lt;td&gt;&lt;a href="http://huatu.xuanheng05.cn/"&gt;在线思维导图、流程图&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
     </row>
     <row r="117" spans="2:22">
-      <c r="B117" s="4" t="str">
+      <c r="B117" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;049&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.57994.com/"&gt;微信公众平台导航&lt;/a&gt;&lt;/td&gt;&lt;td&gt;100&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.oalib.com/"&gt;Open Access Library (OA图书馆)&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
     </row>
     <row r="118" spans="2:22">
-      <c r="B118" s="4" t="str">
+      <c r="B118" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;050&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.anyknew.com/#/"&gt;全网热点&lt;/a&gt;&lt;/td&gt;&lt;td&gt;101&lt;/td&gt;&lt;td&gt;&lt;a href="http://www.pptbz.com/"&gt;PPT宝藏&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
     </row>
     <row r="119" spans="2:22">
-      <c r="B119" s="4" t="str">
+      <c r="B119" s="9" t="str">
         <f t="shared" si="1"/>
         <v>&lt;tr class="gradeX"&gt;&lt;td&gt;051&lt;/td&gt;&lt;td&gt;&lt;a href="https://tophub.today/"&gt;今日热榜官网&lt;/a&gt;&lt;/td&gt;&lt;td&gt;102&lt;/td&gt;&lt;td&gt;&lt;a href="https://www.examcoo.com/"&gt;电子作业与在线考试平台&lt;/a&gt;&lt;/td&gt;</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
     </row>
     <row r="120" spans="2:22">
-      <c r="B120" s="4" t="str">
+      <c r="B120" s="9" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
+        <v>https://www.52pojie.cn/吾爱破解</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -5725,4 +6028,487 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="5" max="5" width="114.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="3:4">
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:5">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" t="str">
+        <f>$B$2&amp;D20&amp;$C$2&amp;C20&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="http://www.freebookspot.es/" target="iframe_a"&gt;FreeBookSpot&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:5">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" t="str">
+        <f>$B$2&amp;D21&amp;$C$2&amp;C21&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="http://4ebooks.org/" target="iframe_a"&gt;4eBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:5">
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E22" t="str">
+        <f>$B$2&amp;D22&amp;$C$2&amp;C22&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="http://www.free-ebooks.net/" target="iframe_a"&gt;Free-eBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:5">
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ref="E23:E41" si="0">$B$2&amp;D23&amp;$C$2&amp;C23&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="http://manybooks.net/" target="iframe_a"&gt;ManyBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:5">
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.getfreeebooks.com/" target="iframe_a"&gt;GetFreeEBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:5">
+      <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://freecomputerbooks.com/" target="iframe_a"&gt;FreeComputerBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:5">
+      <c r="B26" s="3">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.freetechbooks.com/" target="iframe_a"&gt;FreeTechBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:5">
+      <c r="B27" s="3">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.scribd.com/" target="iframe_a"&gt;Scribd&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:5">
+      <c r="B28" s="3">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.globusz.com/" target="iframe_a"&gt;Globusz&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:5">
+      <c r="B29" s="3">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://knowfree.net/" target="iframe_a"&gt;KnowFree&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:5">
+      <c r="B30" s="3">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.onlinefreebooks.net/" target="iframe_a"&gt;OnlineFreeEBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:5">
+      <c r="B31" s="3">
+        <v>12</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.memoware.com/" target="iframe_a"&gt;MemoWare&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="2:5">
+      <c r="B32" s="3">
+        <v>13</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.onlinecomputerbooks.com/" target="iframe_a"&gt;OnlineComputerBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:5">
+      <c r="B33" s="3">
+        <v>14</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.snipfiles.com/" target="iframe_a"&gt;SnipFiles&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="2:5">
+      <c r="B34" s="3">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.bookyards.com/" target="iframe_a"&gt;BookYards&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:5">
+      <c r="B35" s="3">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://digital.library.upenn.edu/books/" target="iframe_a"&gt;TheOnlineBooksPage&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="2:5">
+      <c r="B36" s="3">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.baen.com/" target="iframe_a"&gt;BaenFreeLibrary&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="2:5">
+      <c r="B37" s="3">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.ebooklobby.com/" target="iframe_a"&gt;eBookLobby&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:5">
+      <c r="B38" s="3">
+        <v>19</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.planetpdf.com/" target="iframe_a"&gt;PlanetPDF&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="2:5">
+      <c r="B39" s="3">
+        <v>20</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://www.dailylit.com/" target="iframe_a"&gt;DailyLit&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="2:5">
+      <c r="B40" s="3">
+        <v>21</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://en.wikibooks.org/wiki/Main_Page/" target="iframe_a"&gt;Wikibooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="2:5">
+      <c r="B41" s="3">
+        <v>22</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href="http://dwalin.ru/books/" target="iframe_a"&gt;Dwalin&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" display="https://zyk.bjadks.com/"/>
+    <hyperlink ref="D15" r:id="rId2" display="http://leer.gzlib.com.cn/"/>
+    <hyperlink ref="D36" r:id="rId3" display="http://www.baen.com" tooltip="http://www.baen.com"/>
+    <hyperlink ref="D35" r:id="rId4" display="http://digital.library.upenn.edu/books"/>
+    <hyperlink ref="D41" r:id="rId5" display="http://dwalin.ru/books"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/wz/12.xlsx
+++ b/wz/12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="395">
   <si>
     <t>http://www.lib.wh.sdu.edu.cn/cn/</t>
   </si>
@@ -1194,6 +1194,12 @@
   </si>
   <si>
     <t>http://dwalin.ru/books</t>
+  </si>
+  <si>
+    <t>SoBooks</t>
+  </si>
+  <si>
+    <t>图书馆</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1207,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1235,30 +1241,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1271,13 +1268,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1295,9 +1285,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,6 +1304,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1327,29 +1347,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,17 +1371,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1392,7 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,7 +1416,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,43 +1524,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,109 +1572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,9 +1603,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1608,17 +1616,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1648,17 +1645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1678,17 +1675,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1700,10 +1706,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1712,16 +1718,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,115 +1736,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1861,10 +1867,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2194,8 +2200,8 @@
   <sheetPr/>
   <dimension ref="B3:V120"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A63" sqref="$A63:$XFD63"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2232,7 +2238,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -2241,13 +2247,13 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
@@ -2256,19 +2262,19 @@
       <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="O5" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q5" t="s">
@@ -2279,7 +2285,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
@@ -2288,13 +2294,13 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I6" t="s">
@@ -2303,19 +2309,19 @@
       <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="O6" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q6" t="s">
@@ -2326,7 +2332,7 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
@@ -2335,13 +2341,13 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
@@ -2350,19 +2356,19 @@
       <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="O7" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="Q7" t="s">
@@ -2373,7 +2379,7 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
@@ -2382,13 +2388,13 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="s">
@@ -2397,19 +2403,19 @@
       <c r="K8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="O8" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="Q8" t="s">
@@ -2420,7 +2426,7 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
@@ -2429,13 +2435,13 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
@@ -2444,19 +2450,19 @@
       <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="O9" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="Q9" t="s">
@@ -2467,7 +2473,7 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
@@ -2476,13 +2482,13 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I10" t="s">
@@ -2491,19 +2497,19 @@
       <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M10" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="O10" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="Q10" t="s">
@@ -2514,7 +2520,7 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
@@ -2523,13 +2529,13 @@
       <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I11" t="s">
@@ -2538,19 +2544,19 @@
       <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="M11" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="O11" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
@@ -2561,7 +2567,7 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
@@ -2570,13 +2576,13 @@
       <c r="E12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I12" t="s">
@@ -2585,7 +2591,7 @@
       <c r="K12" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M12" t="s">
@@ -2608,7 +2614,7 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D13" t="s">
@@ -2632,7 +2638,7 @@
       <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="M13" t="s">
@@ -2655,7 +2661,7 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D14" t="s">
@@ -2679,7 +2685,7 @@
       <c r="K14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>65</v>
       </c>
       <c r="M14" t="s">
@@ -2702,7 +2708,7 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D15" t="s">
@@ -2726,7 +2732,7 @@
       <c r="K15" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="M15" t="s">
@@ -2749,7 +2755,7 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
@@ -2773,7 +2779,7 @@
       <c r="K16" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="M16" t="s">
@@ -2796,7 +2802,7 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D17" t="s">
@@ -2820,7 +2826,7 @@
       <c r="K17" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>83</v>
       </c>
       <c r="M17" t="s">
@@ -2843,7 +2849,7 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D18" t="s">
@@ -2867,7 +2873,7 @@
       <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>89</v>
       </c>
       <c r="M18" t="s">
@@ -2890,7 +2896,7 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D19" t="s">
@@ -2914,7 +2920,7 @@
       <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
       </c>
       <c r="M19" t="s">
@@ -2937,7 +2943,7 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D20" t="s">
@@ -2961,7 +2967,7 @@
       <c r="K20" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M20" t="s">
@@ -2984,7 +2990,7 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D21" t="s">
@@ -3008,7 +3014,7 @@
       <c r="K21" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>107</v>
       </c>
       <c r="M21" t="s">
@@ -3031,7 +3037,7 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D22" t="s">
@@ -3055,7 +3061,7 @@
       <c r="K22" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>113</v>
       </c>
       <c r="M22" t="s">
@@ -3078,7 +3084,7 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D23" t="s">
@@ -3102,7 +3108,7 @@
       <c r="K23" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>119</v>
       </c>
       <c r="M23" t="s">
@@ -3125,7 +3131,7 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D24" t="s">
@@ -3149,7 +3155,7 @@
       <c r="K24" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="M24" t="s">
@@ -3172,7 +3178,7 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>128</v>
       </c>
       <c r="D25" t="s">
@@ -3196,7 +3202,7 @@
       <c r="K25" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
         <v>131</v>
       </c>
       <c r="M25" t="s">
@@ -3219,7 +3225,7 @@
       <c r="B26" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D26" t="s">
@@ -3243,7 +3249,7 @@
       <c r="K26" t="s">
         <v>10</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="7" t="s">
         <v>137</v>
       </c>
       <c r="M26" t="s">
@@ -3266,7 +3272,7 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D27" t="s">
@@ -3290,7 +3296,7 @@
       <c r="K27" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M27" t="s">
@@ -3313,7 +3319,7 @@
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>146</v>
       </c>
       <c r="D28" t="s">
@@ -3337,7 +3343,7 @@
       <c r="K28" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M28" t="s">
@@ -3360,7 +3366,7 @@
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D29" t="s">
@@ -3384,19 +3390,19 @@
       <c r="K29" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="7" t="s">
         <v>155</v>
       </c>
       <c r="M29" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="6" t="s">
         <v>156</v>
       </c>
       <c r="O29" t="s">
         <v>7</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="6" t="s">
         <v>157</v>
       </c>
       <c r="Q29" t="s">
@@ -3407,7 +3413,7 @@
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D30" t="s">
@@ -3431,19 +3437,19 @@
       <c r="K30" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>161</v>
       </c>
       <c r="M30" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="6" t="s">
         <v>162</v>
       </c>
       <c r="O30" t="s">
         <v>7</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="6" t="s">
         <v>163</v>
       </c>
       <c r="Q30" t="s">
@@ -3454,7 +3460,7 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D31" t="s">
@@ -3478,19 +3484,19 @@
       <c r="K31" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="7" t="s">
         <v>167</v>
       </c>
       <c r="M31" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="6" t="s">
         <v>168</v>
       </c>
       <c r="O31" t="s">
         <v>7</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="6" t="s">
         <v>169</v>
       </c>
       <c r="Q31" t="s">
@@ -3501,7 +3507,7 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D32" t="s">
@@ -3525,7 +3531,7 @@
       <c r="K32" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="7" t="s">
         <v>173</v>
       </c>
       <c r="M32" t="s">
@@ -3548,7 +3554,7 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>176</v>
       </c>
       <c r="D33" t="s">
@@ -3572,7 +3578,7 @@
       <c r="K33" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M33" t="s">
@@ -3595,7 +3601,7 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>182</v>
       </c>
       <c r="D34" t="s">
@@ -3619,7 +3625,7 @@
       <c r="K34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="7" t="s">
         <v>185</v>
       </c>
       <c r="M34" t="s">
@@ -3642,7 +3648,7 @@
       <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D35" t="s">
@@ -3663,7 +3669,7 @@
       <c r="K35" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="7" t="s">
         <v>191</v>
       </c>
       <c r="M35" t="s">
@@ -3686,7 +3692,7 @@
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D36" t="s">
@@ -3707,7 +3713,7 @@
       <c r="K36" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="7" t="s">
         <v>197</v>
       </c>
       <c r="M36" t="s">
@@ -3730,7 +3736,7 @@
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>200</v>
       </c>
       <c r="D37" t="s">
@@ -3751,7 +3757,7 @@
       <c r="K37" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="7" t="s">
         <v>203</v>
       </c>
       <c r="M37" t="s">
@@ -3774,7 +3780,7 @@
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D38" t="s">
@@ -3795,7 +3801,7 @@
       <c r="K38" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="7" t="s">
         <v>209</v>
       </c>
       <c r="M38" t="s">
@@ -3818,7 +3824,7 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D39" t="s">
@@ -3839,7 +3845,7 @@
       <c r="K39" t="s">
         <v>10</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="7" t="s">
         <v>215</v>
       </c>
       <c r="M39" t="s">
@@ -3862,7 +3868,7 @@
       <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>218</v>
       </c>
       <c r="D40" t="s">
@@ -3883,7 +3889,7 @@
       <c r="K40" t="s">
         <v>10</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="7" t="s">
         <v>221</v>
       </c>
       <c r="M40" t="s">
@@ -3906,7 +3912,7 @@
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D41" t="s">
@@ -3927,7 +3933,7 @@
       <c r="K41" t="s">
         <v>10</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="7" t="s">
         <v>227</v>
       </c>
       <c r="M41" t="s">
@@ -3950,7 +3956,7 @@
       <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D42" t="s">
@@ -3971,7 +3977,7 @@
       <c r="K42" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="7" t="s">
         <v>233</v>
       </c>
       <c r="M42" t="s">
@@ -3994,7 +4000,7 @@
       <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>236</v>
       </c>
       <c r="D43" t="s">
@@ -4015,7 +4021,7 @@
       <c r="K43" t="s">
         <v>10</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="7" t="s">
         <v>239</v>
       </c>
       <c r="M43" t="s">
@@ -4038,7 +4044,7 @@
       <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="7" t="s">
         <v>242</v>
       </c>
       <c r="D44" t="s">
@@ -4059,7 +4065,7 @@
       <c r="K44" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="7" t="s">
         <v>245</v>
       </c>
       <c r="M44" t="s">
@@ -4082,7 +4088,7 @@
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>248</v>
       </c>
       <c r="D45" t="s">
@@ -4103,7 +4109,7 @@
       <c r="K45" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="7" t="s">
         <v>251</v>
       </c>
       <c r="M45" t="s">
@@ -4126,7 +4132,7 @@
       <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>254</v>
       </c>
       <c r="D46" t="s">
@@ -4147,7 +4153,7 @@
       <c r="K46" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="7" t="s">
         <v>257</v>
       </c>
       <c r="M46" t="s">
@@ -4170,7 +4176,7 @@
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D47" t="s">
@@ -4191,7 +4197,7 @@
       <c r="K47" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="7" t="s">
         <v>263</v>
       </c>
       <c r="M47" t="s">
@@ -4214,7 +4220,7 @@
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>266</v>
       </c>
       <c r="D48" t="s">
@@ -4235,7 +4241,7 @@
       <c r="K48" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="7" t="s">
         <v>269</v>
       </c>
       <c r="M48" t="s">
@@ -4258,7 +4264,7 @@
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>272</v>
       </c>
       <c r="D49" t="s">
@@ -4279,7 +4285,7 @@
       <c r="K49" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="7" t="s">
         <v>275</v>
       </c>
       <c r="M49" t="s">
@@ -4302,7 +4308,7 @@
       <c r="B50" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>278</v>
       </c>
       <c r="D50" t="s">
@@ -4323,7 +4329,7 @@
       <c r="K50" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="7" t="s">
         <v>281</v>
       </c>
       <c r="M50" t="s">
@@ -4346,7 +4352,7 @@
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D51" t="s">
@@ -4367,7 +4373,7 @@
       <c r="K51" t="s">
         <v>10</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="7" t="s">
         <v>287</v>
       </c>
       <c r="M51" t="s">
@@ -4390,7 +4396,7 @@
       <c r="B52" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>290</v>
       </c>
       <c r="D52" t="s">
@@ -4411,7 +4417,7 @@
       <c r="K52" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="7" t="s">
         <v>293</v>
       </c>
       <c r="M52" t="s">
@@ -4434,7 +4440,7 @@
       <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="7" t="s">
         <v>296</v>
       </c>
       <c r="D53" t="s">
@@ -4455,7 +4461,7 @@
       <c r="K53" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="7" t="s">
         <v>299</v>
       </c>
       <c r="M53" t="s">
@@ -4478,7 +4484,7 @@
       <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="7" t="s">
         <v>302</v>
       </c>
       <c r="D54" t="s">
@@ -4499,7 +4505,7 @@
       <c r="K54" t="s">
         <v>10</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="7" t="s">
         <v>305</v>
       </c>
       <c r="M54" t="s">
@@ -4522,7 +4528,7 @@
       <c r="B55" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="7" t="s">
         <v>308</v>
       </c>
       <c r="D55" t="s">
@@ -4543,7 +4549,7 @@
       <c r="K55" t="s">
         <v>10</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="7" t="s">
         <v>311</v>
       </c>
       <c r="M55" t="s">
@@ -6033,10 +6039,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E43"/>
+  <dimension ref="B2:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6044,7 +6050,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="5" max="5" width="114.625" customWidth="1"/>
+    <col min="5" max="5" width="94.4083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -6494,11 +6500,250 @@
         <v>&lt;li&gt;&lt;a href="http://dwalin.ru/books/" target="iframe_a"&gt;Dwalin&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:5">
       <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="str">
+        <f>$B$2&amp;D42&amp;$C$2&amp;C42&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="https://sobooks.cc/" target="iframe_a"&gt;SoBooks&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="3"/>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="str">
+        <f>$B$2&amp;D43&amp;$C$2&amp;C43&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="https://www.jiumodiary.com/" target="iframe_a"&gt;鸠摩搜索&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="str">
+        <f>$B$2&amp;D44&amp;$C$2&amp;C44&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="http://www.qishus.com/" target="iframe_a"&gt;奇书网&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>394</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" t="str">
+        <f>$B$2&amp;D45&amp;$C$2&amp;C45&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="http://www.zxcs.me/" target="iframe_a"&gt;知轩藏书&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ref="E46:E61" si="1">$B$2&amp;D46&amp;$C$2&amp;C46&amp;$D$2</f>
+        <v>&lt;li&gt;&lt;a href="http://cn.epubee.com/books/" target="iframe_a"&gt;ePUBee电子书库&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://new.shuge.org/" target="iframe_a"&gt;书格&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.allhistory.com/" target="iframe_a"&gt;全历史&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.zjlib.cn/" target="iframe_a"&gt;浙江图书馆&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.sxlib.com/" target="iframe_a"&gt;绍兴图书馆&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="http://www.gxlib.org.cn/" target="iframe_a"&gt;广西壮族自治区图书馆&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="http://www.gzlib.org/" target="iframe_a"&gt;贵州数字图书馆&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="http://www.ccelib.cn/" target="iframe_a"&gt;长春市图书馆&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="http://virtual.vizen.cn/" target="iframe_a"&gt;博物馆网上展览&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="http://www.worlduc.com/" target="iframe_a"&gt;世界大学城&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.gujiguan.com/" target="iframe_a"&gt;古籍館-中國最大的古籍圖書館&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.wdl.org/zh/" target="iframe_a"&gt;世界数字图书馆主页&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.wujiwuxia.com/" target="iframe_a"&gt;戊戟武侠小说全集&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.gulongwang.com/" target="iframe_a"&gt;古龙小说全集&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="https://www.jinyongwang.com/book/" target="iframe_a"&gt;金庸武侠小说全集&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href="http://www.wuxia.net.cn/" target="iframe_a"&gt;武侠小说网&lt;/a&gt;&lt;/li&gt;&lt;/li&gt;</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
